--- a/dev/IncompressibleLiquids/Dynalene_manufacturer_data.xlsx
+++ b/dev/IncompressibleLiquids/Dynalene_manufacturer_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="13395" windowHeight="11820" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="13395" windowHeight="11820" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vapor pressure" sheetId="2" r:id="rId1"/>
@@ -13,17 +13,14 @@
     <sheet name="HC-30" sheetId="6" r:id="rId4"/>
     <sheet name="HC-40" sheetId="7" r:id="rId5"/>
     <sheet name="HC-50" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Transposed" sheetId="3" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="29">
   <si>
     <t>T [C]</t>
   </si>
@@ -78,18 +75,62 @@
   <si>
     <t>T [K]</t>
   </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>viscosity</t>
+  </si>
+  <si>
+    <t>pSat</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>W/m-K</t>
+  </si>
+  <si>
+    <t>J/kg-K</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Pa-s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\+0.00000E+0;\-0.00000E+0"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,43 +150,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sample calcs"/>
-      <sheetName val="Water saturation table"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="Props"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -223,7 +244,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,7 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,16 +453,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -484,7 +503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -525,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>20</v>
       </c>
@@ -576,7 +595,7 @@
         <v>0.82209868523389307</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>30</v>
       </c>
@@ -627,7 +646,7 @@
         <v>1.0632607420507811</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>40</v>
       </c>
@@ -678,7 +697,7 @@
         <v>1.5596976283646722</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>50</v>
       </c>
@@ -729,7 +748,7 @@
         <v>2.1458726893724496</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>60</v>
       </c>
@@ -780,7 +799,7 @@
         <v>2.7008695314515778</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>70</v>
       </c>
@@ -831,7 +850,7 @@
         <v>3.2033269055470517</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>80</v>
       </c>
@@ -882,7 +901,7 @@
         <v>3.6570929736611038</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>90</v>
       </c>
@@ -933,7 +952,7 @@
         <v>4.0672918184194673</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>100</v>
       </c>
@@ -984,7 +1003,7 @@
         <v>4.4403605721338764</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>110</v>
       </c>
@@ -1035,7 +1054,7 @@
         <v>4.7872315159759875</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>120</v>
       </c>
@@ -1086,7 +1105,7 @@
         <v>5.1088151401034496</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>130</v>
       </c>
@@ -1137,7 +1156,7 @@
         <v>5.4089197325537874</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>140</v>
       </c>
@@ -1188,7 +1207,7 @@
         <v>5.6942843068652067</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>150</v>
       </c>
@@ -1239,7 +1258,7 @@
         <v>5.9667702949646415</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>160</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>6.2253219186481097</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>170</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>6.4729916959697213</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>180</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>6.7098848028670339</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>190</v>
       </c>
@@ -1443,7 +1462,7 @@
         <v>6.9387263752958814</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>200</v>
       </c>
@@ -1494,7 +1513,7 @@
         <v>7.1591925488393748</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>210</v>
       </c>
@@ -1545,7 +1564,7 @@
         <v>7.3714459175904627</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>218</v>
       </c>
@@ -1602,16 +1621,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="M1" sqref="M1:R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -1642,8 +1686,26 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>-10</v>
       </c>
@@ -1679,8 +1741,31 @@
         <f>E3</f>
         <v>1204</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <f>A3+273.15</f>
+        <v>263.14999999999998</v>
+      </c>
+      <c r="N3" s="2">
+        <f>E3</f>
+        <v>1204</v>
+      </c>
+      <c r="O3" s="2">
+        <f>D3*1000</f>
+        <v>3246</v>
+      </c>
+      <c r="P3" s="2">
+        <f>C3*1000</f>
+        <v>494</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>B3/1000</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1716,8 +1801,31 @@
         <f t="shared" si="2"/>
         <v>1199</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M6" si="3">A4+273.15</f>
+        <v>273.14999999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N6" si="4">E4</f>
+        <v>1199</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O6" si="5">D4*1000</f>
+        <v>3271</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P6" si="6">C4*1000</f>
+        <v>504</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q6" si="7">B4/1000</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1753,8 +1861,31 @@
         <f t="shared" si="2"/>
         <v>1195</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>1195</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="5"/>
+        <v>3296</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="6"/>
+        <v>514</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1790,8 +1921,32 @@
         <f t="shared" si="2"/>
         <v>1190</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <f t="shared" si="3"/>
+        <v>293.14999999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>1190</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="5"/>
+        <v>3320</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="6"/>
+        <v>524</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'Vapor pressure'!J3*1000</f>
+        <v>2275.2699057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>30</v>
       </c>
@@ -1827,8 +1982,32 @@
         <f t="shared" si="2"/>
         <v>1186</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M26" si="8">A7+273.15</f>
+        <v>303.14999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N26" si="9">E7</f>
+        <v>1186</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:O26" si="10">D7*1000</f>
+        <v>3345</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ref="P7:P26" si="11">C7*1000</f>
+        <v>534</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" ref="Q7:Q26" si="12">B7/1000</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <f>'Vapor pressure'!J4*1000</f>
+        <v>2895.7980617999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>40</v>
       </c>
@@ -1864,8 +2043,32 @@
         <f t="shared" si="2"/>
         <v>1181</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" si="8"/>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="9"/>
+        <v>1181</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="10"/>
+        <v>3370</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="11"/>
+        <v>544</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <f>'Vapor pressure'!J5*1000</f>
+        <v>4757.3825300999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1901,8 +2104,32 @@
         <f t="shared" si="2"/>
         <v>1177</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="8"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="9"/>
+        <v>1177</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="10"/>
+        <v>3395</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="11"/>
+        <v>554</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="R9" s="2">
+        <f>'Vapor pressure'!J6*1000</f>
+        <v>8549.4990396000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>60</v>
       </c>
@@ -1938,8 +2165,32 @@
         <f t="shared" si="2"/>
         <v>1172</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="8"/>
+        <v>333.15</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="9"/>
+        <v>1172</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="10"/>
+        <v>3420</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="11"/>
+        <v>564</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R10" s="2">
+        <f>'Vapor pressure'!J7*1000</f>
+        <v>14892.675746400002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>70</v>
       </c>
@@ -1975,8 +2226,32 @@
         <f t="shared" si="2"/>
         <v>1167</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="8"/>
+        <v>343.15</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="9"/>
+        <v>1167</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="10"/>
+        <v>3444</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="11"/>
+        <v>574</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="12"/>
+        <v>9.1E-4</v>
+      </c>
+      <c r="R11" s="2">
+        <f>'Vapor pressure'!J8*1000</f>
+        <v>24614.283525300001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>80</v>
       </c>
@@ -2012,8 +2287,32 @@
         <f t="shared" si="2"/>
         <v>1163</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="8"/>
+        <v>353.15</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="9"/>
+        <v>1163</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="10"/>
+        <v>3469</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="11"/>
+        <v>584</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="12"/>
+        <v>8.1000000000000006E-4</v>
+      </c>
+      <c r="R12" s="2">
+        <f>'Vapor pressure'!J9*1000</f>
+        <v>38748.535969800003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>90</v>
       </c>
@@ -2049,8 +2348,32 @@
         <f t="shared" si="2"/>
         <v>1158</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="8"/>
+        <v>363.15</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="9"/>
+        <v>1158</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="10"/>
+        <v>3494</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="11"/>
+        <v>594</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="12"/>
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="R13" s="2">
+        <f>'Vapor pressure'!J10*1000</f>
+        <v>58398.59424630001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>100</v>
       </c>
@@ -2086,8 +2409,32 @@
         <f t="shared" si="2"/>
         <v>1154</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="8"/>
+        <v>373.15</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="9"/>
+        <v>1154</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="10"/>
+        <v>3519</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="11"/>
+        <v>604</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="12"/>
+        <v>6.6E-4</v>
+      </c>
+      <c r="R14" s="2">
+        <f>'Vapor pressure'!J11*1000</f>
+        <v>84805.51466700001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>110</v>
       </c>
@@ -2123,8 +2470,32 @@
         <f t="shared" si="2"/>
         <v>1149</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="8"/>
+        <v>383.15</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="9"/>
+        <v>1149</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="10"/>
+        <v>3544</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="11"/>
+        <v>614</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="12"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="R15" s="2">
+        <f>'Vapor pressure'!J12*1000</f>
+        <v>119968.77684599999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>120</v>
       </c>
@@ -2160,8 +2531,32 @@
         <f t="shared" si="2"/>
         <v>1145</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="8"/>
+        <v>393.15</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="9"/>
+        <v>1145</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="10"/>
+        <v>3568</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="11"/>
+        <v>624</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="12"/>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="R16" s="2">
+        <f>'Vapor pressure'!J13*1000</f>
+        <v>165474.17496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>130</v>
       </c>
@@ -2197,8 +2592,32 @@
         <f t="shared" si="2"/>
         <v>1140</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="8"/>
+        <v>403.15</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="9"/>
+        <v>1140</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="10"/>
+        <v>3593</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="11"/>
+        <v>634</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="12"/>
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="R17" s="2">
+        <f>'Vapor pressure'!J14*1000</f>
+        <v>223390.13619599998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>140</v>
       </c>
@@ -2234,8 +2653,32 @@
         <f t="shared" si="2"/>
         <v>1136</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="8"/>
+        <v>413.15</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="9"/>
+        <v>1136</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="10"/>
+        <v>3618</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="11"/>
+        <v>644</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="12"/>
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="R18" s="2">
+        <f>'Vapor pressure'!J15*1000</f>
+        <v>297164.03919899999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>150</v>
       </c>
@@ -2271,8 +2714,32 @@
         <f t="shared" si="2"/>
         <v>1131</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="8"/>
+        <v>423.15</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="9"/>
+        <v>1131</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="10"/>
+        <v>3643</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="11"/>
+        <v>654</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="12"/>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="R19" s="2">
+        <f>'Vapor pressure'!J16*1000</f>
+        <v>390243.26261400001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>160</v>
       </c>
@@ -2308,8 +2775,32 @@
         <f t="shared" si="2"/>
         <v>1127</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="8"/>
+        <v>433.15</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="9"/>
+        <v>1127</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="10"/>
+        <v>3668</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="11"/>
+        <v>664</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R20" s="2">
+        <f>'Vapor pressure'!J17*1000</f>
+        <v>505385.70935700001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>170</v>
       </c>
@@ -2345,8 +2836,32 @@
         <f t="shared" si="2"/>
         <v>1122</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="8"/>
+        <v>443.15</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="9"/>
+        <v>1122</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="10"/>
+        <v>3692</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="11"/>
+        <v>674</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="12"/>
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="R21" s="2">
+        <f>'Vapor pressure'!J18*1000</f>
+        <v>647417.709531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>180</v>
       </c>
@@ -2382,8 +2897,32 @@
         <f t="shared" si="2"/>
         <v>1118</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="8"/>
+        <v>453.15</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="9"/>
+        <v>1118</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="10"/>
+        <v>3717</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="11"/>
+        <v>684</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="12"/>
+        <v>3.5E-4</v>
+      </c>
+      <c r="R22" s="2">
+        <f>'Vapor pressure'!J19*1000</f>
+        <v>820476.11751000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>190</v>
       </c>
@@ -2419,8 +2958,32 @@
         <f t="shared" si="2"/>
         <v>1113</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="8"/>
+        <v>463.15</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="9"/>
+        <v>1113</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="10"/>
+        <v>3742</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="11"/>
+        <v>694</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="12"/>
+        <v>3.3E-4</v>
+      </c>
+      <c r="R23" s="2">
+        <f>'Vapor pressure'!J20*1000</f>
+        <v>1031455.690584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>200</v>
       </c>
@@ -2456,8 +3019,32 @@
         <f t="shared" si="2"/>
         <v>1109</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="8"/>
+        <v>473.15</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="9"/>
+        <v>1109</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="10"/>
+        <v>3767</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="11"/>
+        <v>704</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="12"/>
+        <v>3.1E-4</v>
+      </c>
+      <c r="R24" s="2">
+        <f>'Vapor pressure'!J21*1000</f>
+        <v>1285872.2345850002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>210</v>
       </c>
@@ -2493,8 +3080,32 @@
         <f t="shared" si="2"/>
         <v>1104</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="8"/>
+        <v>483.15</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="9"/>
+        <v>1104</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="10"/>
+        <v>3792</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="11"/>
+        <v>714</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="12"/>
+        <v>2.9E-4</v>
+      </c>
+      <c r="R25" s="2">
+        <f>'Vapor pressure'!J22*1000</f>
+        <v>1589931.0310740001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>218</v>
       </c>
@@ -2529,6 +3140,30 @@
       <c r="K26">
         <f t="shared" si="2"/>
         <v>1101</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="8"/>
+        <v>491.15</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="9"/>
+        <v>1101</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="10"/>
+        <v>3811</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="11"/>
+        <v>722</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="12"/>
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="R26" s="2">
+        <f>'Vapor pressure'!J23*1000</f>
+        <v>1874684.507151</v>
       </c>
     </row>
   </sheetData>
@@ -2537,16 +3172,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:AD34"/>
+      <selection activeCell="M1" sqref="M1:R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2577,8 +3239,26 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>-20</v>
       </c>
@@ -2614,8 +3294,31 @@
         <f>E3</f>
         <v>1258</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <f>A3+273.15</f>
+        <v>253.14999999999998</v>
+      </c>
+      <c r="N3" s="2">
+        <f>E3</f>
+        <v>1258</v>
+      </c>
+      <c r="O3" s="2">
+        <f>D3*1000</f>
+        <v>3117</v>
+      </c>
+      <c r="P3" s="2">
+        <f>C3*1000</f>
+        <v>483</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>B3/1000</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -2651,8 +3354,31 @@
         <f t="shared" si="2"/>
         <v>1253</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M26" si="3">A4+273.15</f>
+        <v>263.14999999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N26" si="4">E4</f>
+        <v>1253</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O26" si="5">D4*1000</f>
+        <v>3141</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P26" si="6">C4*1000</f>
+        <v>493</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q26" si="7">B4/1000</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2688,8 +3414,31 @@
         <f t="shared" si="2"/>
         <v>1248</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>273.14999999999998</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>1248</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="5"/>
+        <v>3164</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="6"/>
+        <v>503</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2725,8 +3474,31 @@
         <f t="shared" si="2"/>
         <v>1242</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <f t="shared" si="3"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>1242</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="5"/>
+        <v>3188</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="6"/>
+        <v>513</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>20</v>
       </c>
@@ -2762,8 +3534,32 @@
         <f t="shared" si="2"/>
         <v>1237</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>293.14999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="4"/>
+        <v>1237</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>3212</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="6"/>
+        <v>523</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <f>'Vapor pressure'!K3*1000</f>
+        <v>2068.4271870000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>30</v>
       </c>
@@ -2799,8 +3595,32 @@
         <f t="shared" si="2"/>
         <v>1232</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>303.14999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="4"/>
+        <v>1232</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="5"/>
+        <v>3235</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="6"/>
+        <v>533</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <f>'Vapor pressure'!K4*1000</f>
+        <v>2757.9029160000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>40</v>
       </c>
@@ -2836,8 +3656,32 @@
         <f t="shared" si="2"/>
         <v>1227</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="4"/>
+        <v>1227</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="5"/>
+        <v>3259</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="6"/>
+        <v>543</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="R9" s="2">
+        <f>'Vapor pressure'!K5*1000</f>
+        <v>4550.5398114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>50</v>
       </c>
@@ -2873,8 +3717,32 @@
         <f t="shared" si="2"/>
         <v>1222</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="4"/>
+        <v>1222</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
+        <v>3282</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="6"/>
+        <v>553</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="R10" s="2">
+        <f>'Vapor pressure'!K6*1000</f>
+        <v>7997.9184563999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>60</v>
       </c>
@@ -2910,8 +3778,32 @@
         <f t="shared" si="2"/>
         <v>1216</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="3"/>
+        <v>333.15</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="4"/>
+        <v>1216</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="5"/>
+        <v>3306</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="6"/>
+        <v>563</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="R11" s="2">
+        <f>'Vapor pressure'!K7*1000</f>
+        <v>13720.5670071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>70</v>
       </c>
@@ -2947,8 +3839,32 @@
         <f t="shared" si="2"/>
         <v>1211</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="3"/>
+        <v>343.15</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="4"/>
+        <v>1211</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="5"/>
+        <v>3330</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="6"/>
+        <v>573</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="R12" s="2">
+        <f>'Vapor pressure'!K8*1000</f>
+        <v>22476.9087654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>80</v>
       </c>
@@ -2984,8 +3900,32 @@
         <f t="shared" si="2"/>
         <v>1206</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>353.15</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="4"/>
+        <v>1206</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="5"/>
+        <v>3353</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="6"/>
+        <v>583</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="7"/>
+        <v>9.5E-4</v>
+      </c>
+      <c r="R13" s="2">
+        <f>'Vapor pressure'!K9*1000</f>
+        <v>35232.209751900002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>90</v>
       </c>
@@ -3021,8 +3961,32 @@
         <f t="shared" si="2"/>
         <v>1201</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="3"/>
+        <v>363.15</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="4"/>
+        <v>1201</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="5"/>
+        <v>3377</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="6"/>
+        <v>593</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="7"/>
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="R14" s="2">
+        <f>'Vapor pressure'!K10*1000</f>
+        <v>52951.735987200002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>100</v>
       </c>
@@ -3058,8 +4022,32 @@
         <f t="shared" si="2"/>
         <v>1196</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="3"/>
+        <v>373.15</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="4"/>
+        <v>1196</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="6"/>
+        <v>603</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="7"/>
+        <v>7.7000000000000007E-4</v>
+      </c>
+      <c r="R15" s="2">
+        <f>'Vapor pressure'!K11*1000</f>
+        <v>77221.281648000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>110</v>
       </c>
@@ -3095,8 +4083,32 @@
         <f t="shared" si="2"/>
         <v>1191</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
+        <v>383.15</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="4"/>
+        <v>1191</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
+        <v>3424</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="6"/>
+        <v>613</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R16" s="2">
+        <f>'Vapor pressure'!K12*1000</f>
+        <v>108937.16518200001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>120</v>
       </c>
@@ -3132,8 +4144,32 @@
         <f t="shared" si="2"/>
         <v>1185</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="3"/>
+        <v>393.15</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="4"/>
+        <v>1185</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="5"/>
+        <v>3448</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="6"/>
+        <v>623</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="7"/>
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="R17" s="2">
+        <f>'Vapor pressure'!K13*1000</f>
+        <v>150305.70892200002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>130</v>
       </c>
@@ -3169,8 +4205,32 @@
         <f t="shared" si="2"/>
         <v>1180</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="3"/>
+        <v>403.15</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="4"/>
+        <v>1180</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="5"/>
+        <v>3471</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="6"/>
+        <v>633</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="7"/>
+        <v>5.8E-4</v>
+      </c>
+      <c r="R18" s="2">
+        <f>'Vapor pressure'!K14*1000</f>
+        <v>204084.81578400003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>140</v>
       </c>
@@ -3206,8 +4266,32 @@
         <f t="shared" si="2"/>
         <v>1175</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="3"/>
+        <v>413.15</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="4"/>
+        <v>1175</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="5"/>
+        <v>3495</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="6"/>
+        <v>643</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="7"/>
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="R19" s="2">
+        <f>'Vapor pressure'!K15*1000</f>
+        <v>271653.43722600001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>150</v>
       </c>
@@ -3243,8 +4327,32 @@
         <f t="shared" si="2"/>
         <v>1170</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="3"/>
+        <v>423.15</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="4"/>
+        <v>1170</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="5"/>
+        <v>3518</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="6"/>
+        <v>653</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="7"/>
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="R20" s="2">
+        <f>'Vapor pressure'!K16*1000</f>
+        <v>357148.42762199999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>160</v>
       </c>
@@ -3280,8 +4388,32 @@
         <f t="shared" si="2"/>
         <v>1165</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="3"/>
+        <v>433.15</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="4"/>
+        <v>1165</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="5"/>
+        <v>3542</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="6"/>
+        <v>663</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="R21" s="2">
+        <f>'Vapor pressure'!K17*1000</f>
+        <v>462638.21415899997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>170</v>
       </c>
@@ -3317,8 +4449,32 @@
         <f t="shared" si="2"/>
         <v>1159</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="3"/>
+        <v>443.15</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="4"/>
+        <v>1159</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="5"/>
+        <v>3566</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="6"/>
+        <v>673</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="7"/>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="R22" s="2">
+        <f>'Vapor pressure'!K18*1000</f>
+        <v>593638.60266899993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>180</v>
       </c>
@@ -3354,8 +4510,32 @@
         <f t="shared" si="2"/>
         <v>1154</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="3"/>
+        <v>453.15</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="4"/>
+        <v>1154</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="5"/>
+        <v>3589</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="6"/>
+        <v>683</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R23" s="2">
+        <f>'Vapor pressure'!K19*1000</f>
+        <v>752907.49606799998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>190</v>
       </c>
@@ -3391,8 +4571,32 @@
         <f t="shared" si="2"/>
         <v>1149</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="3"/>
+        <v>463.15</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="4"/>
+        <v>1149</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="5"/>
+        <v>3613</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="6"/>
+        <v>693</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="7"/>
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="R24" s="2">
+        <f>'Vapor pressure'!K20*1000</f>
+        <v>946650.17591700004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>200</v>
       </c>
@@ -3428,8 +4632,32 @@
         <f t="shared" si="2"/>
         <v>1144</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="3"/>
+        <v>473.15</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="4"/>
+        <v>1144</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="5"/>
+        <v>3636</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="6"/>
+        <v>703</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="7"/>
+        <v>3.5E-4</v>
+      </c>
+      <c r="R25" s="2">
+        <f>'Vapor pressure'!K21*1000</f>
+        <v>1180382.448048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>210</v>
       </c>
@@ -3465,6 +4693,33 @@
         <f t="shared" si="2"/>
         <v>1139</v>
       </c>
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
+        <v>483.15</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="4"/>
+        <v>1139</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="5"/>
+        <v>3660</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="6"/>
+        <v>713</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="7"/>
+        <v>3.3E-4</v>
+      </c>
+      <c r="R26" s="2">
+        <f>'Vapor pressure'!K22*1000</f>
+        <v>1459620.1182929999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="R27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3472,16 +4727,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:AE35"/>
+      <selection activeCell="M1" sqref="M1:R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3512,8 +4794,26 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>-30</v>
       </c>
@@ -3549,8 +4849,31 @@
         <f>E3</f>
         <v>1300</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <f>A3+273.15</f>
+        <v>243.14999999999998</v>
+      </c>
+      <c r="N3" s="2">
+        <f>E3</f>
+        <v>1300</v>
+      </c>
+      <c r="O3" s="2">
+        <f>D3*1000</f>
+        <v>2961</v>
+      </c>
+      <c r="P3" s="2">
+        <f>C3*1000</f>
+        <v>469</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>B3/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>-20</v>
       </c>
@@ -3586,8 +4909,31 @@
         <f t="shared" si="2"/>
         <v>1295</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M26" si="3">A4+273.15</f>
+        <v>253.14999999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N26" si="4">E4</f>
+        <v>1295</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O26" si="5">D4*1000</f>
+        <v>2984</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P26" si="6">C4*1000</f>
+        <v>479</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q26" si="7">B4/1000</f>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>-10</v>
       </c>
@@ -3623,8 +4969,31 @@
         <f t="shared" si="2"/>
         <v>1290</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>263.14999999999998</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>1290</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="5"/>
+        <v>3007</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="6"/>
+        <v>489</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="7"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3660,8 +5029,31 @@
         <f t="shared" si="2"/>
         <v>1285</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <f t="shared" si="3"/>
+        <v>273.14999999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>1285</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="5"/>
+        <v>3031</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="6"/>
+        <v>499</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="7"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3697,8 +5089,31 @@
         <f t="shared" si="2"/>
         <v>1280</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="4"/>
+        <v>1280</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>3054</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="6"/>
+        <v>509</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>20</v>
       </c>
@@ -3734,8 +5149,32 @@
         <f t="shared" si="2"/>
         <v>1275</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>293.14999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="4"/>
+        <v>1275</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="5"/>
+        <v>3077</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <f>'Vapor pressure'!L3*1000</f>
+        <v>1792.6368954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3771,8 +5210,32 @@
         <f t="shared" si="2"/>
         <v>1270</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>303.14999999999998</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="4"/>
+        <v>1270</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="5"/>
+        <v>3100</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="6"/>
+        <v>529</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="R9" s="2">
+        <f>'Vapor pressure'!L4*1000</f>
+        <v>2413.1650515000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>40</v>
       </c>
@@ -3808,8 +5271,32 @@
         <f t="shared" si="2"/>
         <v>1265</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="4"/>
+        <v>1265</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
+        <v>3123</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="6"/>
+        <v>539</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9E-3</v>
+      </c>
+      <c r="R10" s="2">
+        <f>'Vapor pressure'!L5*1000</f>
+        <v>3998.9592281999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>50</v>
       </c>
@@ -3845,8 +5332,32 @@
         <f t="shared" si="2"/>
         <v>1260</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="3"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="4"/>
+        <v>1260</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="5"/>
+        <v>3146</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="6"/>
+        <v>549</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="R11" s="2">
+        <f>'Vapor pressure'!L6*1000</f>
+        <v>7170.5475815999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>60</v>
       </c>
@@ -3882,8 +5393,32 @@
         <f t="shared" si="2"/>
         <v>1255</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="3"/>
+        <v>333.15</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="4"/>
+        <v>1255</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="5"/>
+        <v>3169</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="6"/>
+        <v>559</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="R12" s="2">
+        <f>'Vapor pressure'!L7*1000</f>
+        <v>12479.5106949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>70</v>
       </c>
@@ -3919,8 +5454,32 @@
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>343.15</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="5"/>
+        <v>3192</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="6"/>
+        <v>569</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <f>'Vapor pressure'!L8*1000</f>
+        <v>20615.324297100004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>80</v>
       </c>
@@ -3956,8 +5515,32 @@
         <f t="shared" si="2"/>
         <v>1244</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="3"/>
+        <v>353.15</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="4"/>
+        <v>1244</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="5"/>
+        <v>3215</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="6"/>
+        <v>579</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="R14" s="2">
+        <f>'Vapor pressure'!L9*1000</f>
+        <v>32336.411690100009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>90</v>
       </c>
@@ -3993,8 +5576,32 @@
         <f t="shared" si="2"/>
         <v>1239</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="3"/>
+        <v>363.15</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="4"/>
+        <v>1239</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="5"/>
+        <v>3238</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="6"/>
+        <v>589</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="7"/>
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="R15" s="2">
+        <f>'Vapor pressure'!L10*1000</f>
+        <v>48676.986467399998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>100</v>
       </c>
@@ -4030,8 +5637,32 @@
         <f t="shared" si="2"/>
         <v>1234</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
+        <v>373.15</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="4"/>
+        <v>1234</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
+        <v>3262</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="6"/>
+        <v>599</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="7"/>
+        <v>8.9000000000000006E-4</v>
+      </c>
+      <c r="R16" s="2">
+        <f>'Vapor pressure'!L11*1000</f>
+        <v>71016.000087000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>110</v>
       </c>
@@ -4067,8 +5698,32 @@
         <f t="shared" si="2"/>
         <v>1229</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="3"/>
+        <v>383.15</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="4"/>
+        <v>1229</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="5"/>
+        <v>3285</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="6"/>
+        <v>609</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R17" s="2">
+        <f>'Vapor pressure'!L12*1000</f>
+        <v>99973.980705000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>120</v>
       </c>
@@ -4104,8 +5759,32 @@
         <f t="shared" si="2"/>
         <v>1224</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="3"/>
+        <v>393.15</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="4"/>
+        <v>1224</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="5"/>
+        <v>3308</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="6"/>
+        <v>619</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="7"/>
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="R18" s="2">
+        <f>'Vapor pressure'!L13*1000</f>
+        <v>137895.1458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>130</v>
       </c>
@@ -4141,8 +5820,32 @@
         <f t="shared" si="2"/>
         <v>1219</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="3"/>
+        <v>403.15</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="4"/>
+        <v>1219</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="5"/>
+        <v>3331</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="6"/>
+        <v>629</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="7"/>
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="R19" s="2">
+        <f>'Vapor pressure'!L14*1000</f>
+        <v>186158.44683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>140</v>
       </c>
@@ -4178,8 +5881,32 @@
         <f t="shared" si="2"/>
         <v>1214</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="3"/>
+        <v>413.15</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="4"/>
+        <v>1214</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="5"/>
+        <v>3354</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="6"/>
+        <v>639</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="7"/>
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="R20" s="2">
+        <f>'Vapor pressure'!L15*1000</f>
+        <v>247521.78671099999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>150</v>
       </c>
@@ -4215,8 +5942,32 @@
         <f t="shared" si="2"/>
         <v>1209</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="3"/>
+        <v>423.15</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="4"/>
+        <v>1209</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="5"/>
+        <v>3377</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="6"/>
+        <v>649</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="7"/>
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="R21" s="2">
+        <f>'Vapor pressure'!L16*1000</f>
+        <v>324743.06835900003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>160</v>
       </c>
@@ -4252,8 +6003,32 @@
         <f t="shared" si="2"/>
         <v>1204</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="3"/>
+        <v>433.15</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="4"/>
+        <v>1204</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="6"/>
+        <v>659</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="7"/>
+        <v>5.2000000000000006E-4</v>
+      </c>
+      <c r="R22" s="2">
+        <f>'Vapor pressure'!L17*1000</f>
+        <v>420580.19469000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>170</v>
       </c>
@@ -4289,8 +6064,32 @@
         <f t="shared" si="2"/>
         <v>1199</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="3"/>
+        <v>443.15</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="4"/>
+        <v>1199</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="5"/>
+        <v>3423</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="6"/>
+        <v>669</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="7"/>
+        <v>4.7999999999999996E-4</v>
+      </c>
+      <c r="R23" s="2">
+        <f>'Vapor pressure'!L18*1000</f>
+        <v>539170.02007800003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>180</v>
       </c>
@@ -4326,8 +6125,32 @@
         <f t="shared" si="2"/>
         <v>1193</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="3"/>
+        <v>453.15</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="4"/>
+        <v>1193</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="5"/>
+        <v>3446</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="6"/>
+        <v>679</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="7"/>
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="R24" s="2">
+        <f>'Vapor pressure'!L19*1000</f>
+        <v>683959.92316800007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>190</v>
       </c>
@@ -4363,8 +6186,32 @@
         <f t="shared" si="2"/>
         <v>1188</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="3"/>
+        <v>463.15</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="4"/>
+        <v>1188</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="5"/>
+        <v>3469</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="6"/>
+        <v>689</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="7"/>
+        <v>4.1999999999999996E-4</v>
+      </c>
+      <c r="R25" s="2">
+        <f>'Vapor pressure'!L20*1000</f>
+        <v>859086.75833400001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>200</v>
       </c>
@@ -4400,8 +6247,32 @@
         <f t="shared" si="2"/>
         <v>1183</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
+        <v>473.15</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="4"/>
+        <v>1183</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="5"/>
+        <v>3493</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="6"/>
+        <v>699</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="7"/>
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="R26" s="2">
+        <f>'Vapor pressure'!L21*1000</f>
+        <v>1071445.282866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>210</v>
       </c>
@@ -4418,25 +6289,55 @@
         <v>1178</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27" si="3">A27+273.15</f>
+        <f t="shared" ref="G27" si="8">A27+273.15</f>
         <v>483.15</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27" si="4">B27*1000</f>
+        <f t="shared" ref="H27" si="9">B27*1000</f>
         <v>370</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="5">C27</f>
+        <f t="shared" ref="I27" si="10">C27</f>
         <v>0.70899999999999996</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27" si="6">D27</f>
+        <f t="shared" ref="J27" si="11">D27</f>
         <v>3.516</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27" si="7">E27</f>
+        <f t="shared" ref="K27" si="12">E27</f>
         <v>1178</v>
       </c>
+      <c r="M27" s="2">
+        <f t="shared" ref="M27" si="13">A27+273.15</f>
+        <v>483.15</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ref="N27" si="14">E27</f>
+        <v>1178</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" ref="O27" si="15">D27*1000</f>
+        <v>3516</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27" si="16">C27*1000</f>
+        <v>709</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" ref="Q27" si="17">B27/1000</f>
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="R27" s="2">
+        <f>'Vapor pressure'!L22*1000</f>
+        <v>1325172.3511380001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="R29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4444,16 +6345,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:AF35"/>
+      <selection activeCell="M1" sqref="M1:R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4484,8 +6412,26 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>-40</v>
       </c>
@@ -4521,8 +6467,31 @@
         <f>E3</f>
         <v>1348</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <f>A3+273.15</f>
+        <v>233.14999999999998</v>
+      </c>
+      <c r="N3" s="2">
+        <f>E3</f>
+        <v>1348</v>
+      </c>
+      <c r="O3" s="2">
+        <f>D3*1000</f>
+        <v>2800</v>
+      </c>
+      <c r="P3" s="2">
+        <f>C3*1000</f>
+        <v>449</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>B3/1000</f>
+        <v>1.49E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>-30</v>
       </c>
@@ -4558,8 +6527,31 @@
         <f t="shared" si="2"/>
         <v>1343</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M27" si="3">A4+273.15</f>
+        <v>243.14999999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N27" si="4">E4</f>
+        <v>1343</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O27" si="5">D4*1000</f>
+        <v>2820</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P27" si="6">C4*1000</f>
+        <v>459</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q27" si="7">B4/1000</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>-20</v>
       </c>
@@ -4595,8 +6587,31 @@
         <f t="shared" si="2"/>
         <v>1337</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>253.14999999999998</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>1337</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="5"/>
+        <v>2840</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="6"/>
+        <v>469</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="7"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>-10</v>
       </c>
@@ -4632,8 +6647,31 @@
         <f t="shared" si="2"/>
         <v>1332</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <f t="shared" si="3"/>
+        <v>263.14999999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>1332</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="5"/>
+        <v>2870</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="6"/>
+        <v>479</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="7"/>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4669,8 +6707,31 @@
         <f t="shared" si="2"/>
         <v>1326</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>273.14999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="4"/>
+        <v>1326</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>2890</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="6"/>
+        <v>489</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="7"/>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>10</v>
       </c>
@@ -4706,8 +6767,31 @@
         <f t="shared" si="2"/>
         <v>1321</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="4"/>
+        <v>1321</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="5"/>
+        <v>2910</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="6"/>
+        <v>499</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="7"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>20</v>
       </c>
@@ -4743,8 +6827,32 @@
         <f t="shared" si="2"/>
         <v>1315</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>293.14999999999998</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="4"/>
+        <v>1315</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="5"/>
+        <v>2930</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="6"/>
+        <v>509</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="R9" s="2">
+        <f>'Vapor pressure'!M3*1000</f>
+        <v>1516.8466038000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>30</v>
       </c>
@@ -4780,8 +6888,32 @@
         <f t="shared" si="2"/>
         <v>1309</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>303.14999999999998</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="4"/>
+        <v>1309</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
+        <v>2960</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="R10" s="2">
+        <f>'Vapor pressure'!M4*1000</f>
+        <v>2206.3223327999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>40</v>
       </c>
@@ -4817,8 +6949,32 @@
         <f t="shared" si="2"/>
         <v>1304</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="3"/>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="4"/>
+        <v>1304</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="5"/>
+        <v>2980</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="6"/>
+        <v>529</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="R11" s="2">
+        <f>'Vapor pressure'!M5*1000</f>
+        <v>3792.1165095000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>50</v>
       </c>
@@ -4854,8 +7010,32 @@
         <f t="shared" si="2"/>
         <v>1298</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="3"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="4"/>
+        <v>1298</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="6"/>
+        <v>539</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="R12" s="2">
+        <f>'Vapor pressure'!M6*1000</f>
+        <v>6687.9145713000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>60</v>
       </c>
@@ -4891,8 +7071,32 @@
         <f t="shared" si="2"/>
         <v>1293</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>333.15</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="4"/>
+        <v>1293</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="5"/>
+        <v>3030</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="6"/>
+        <v>549</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <f>'Vapor pressure'!M7*1000</f>
+        <v>11514.2446743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>70</v>
       </c>
@@ -4928,8 +7132,32 @@
         <f t="shared" si="2"/>
         <v>1287</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="3"/>
+        <v>343.15</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="4"/>
+        <v>1287</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="5"/>
+        <v>3050</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="6"/>
+        <v>559</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="R14" s="2">
+        <f>'Vapor pressure'!M8*1000</f>
+        <v>18753.7398288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>80</v>
       </c>
@@ -4965,8 +7193,32 @@
         <f t="shared" si="2"/>
         <v>1281</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="3"/>
+        <v>353.15</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="4"/>
+        <v>1281</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="5"/>
+        <v>3070</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="6"/>
+        <v>569</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="R15" s="2">
+        <f>'Vapor pressure'!M9*1000</f>
+        <v>29233.770909600004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>90</v>
       </c>
@@ -5002,8 +7254,32 @@
         <f t="shared" si="2"/>
         <v>1276</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
+        <v>363.15</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="4"/>
+        <v>1276</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
+        <v>3090</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="6"/>
+        <v>579</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="R16" s="2">
+        <f>'Vapor pressure'!M10*1000</f>
+        <v>43781.708791500001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>100</v>
       </c>
@@ -5039,8 +7315,32 @@
         <f t="shared" si="2"/>
         <v>1270</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="3"/>
+        <v>373.15</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="4"/>
+        <v>1270</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="5"/>
+        <v>3120</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="6"/>
+        <v>589</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="7"/>
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="R17" s="2">
+        <f>'Vapor pressure'!M11*1000</f>
+        <v>63500.714640900005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>110</v>
       </c>
@@ -5076,8 +7376,32 @@
         <f t="shared" si="2"/>
         <v>1265</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="3"/>
+        <v>383.15</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="4"/>
+        <v>1265</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="5"/>
+        <v>3140</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="6"/>
+        <v>599</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1E-4</v>
+      </c>
+      <c r="R18" s="2">
+        <f>'Vapor pressure'!M12*1000</f>
+        <v>89631.844769999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>120</v>
       </c>
@@ -5113,8 +7437,32 @@
         <f t="shared" si="2"/>
         <v>1259</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="3"/>
+        <v>393.15</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="4"/>
+        <v>1259</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="5"/>
+        <v>3160</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="6"/>
+        <v>609</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="R19" s="2">
+        <f>'Vapor pressure'!M13*1000</f>
+        <v>123416.155491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>130</v>
       </c>
@@ -5150,8 +7498,32 @@
         <f t="shared" si="2"/>
         <v>1253</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="3"/>
+        <v>403.15</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="4"/>
+        <v>1253</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="5"/>
+        <v>3190</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="6"/>
+        <v>619</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="7"/>
+        <v>7.7000000000000007E-4</v>
+      </c>
+      <c r="R20" s="2">
+        <f>'Vapor pressure'!M14*1000</f>
+        <v>166853.126418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>140</v>
       </c>
@@ -5187,8 +7559,32 @@
         <f t="shared" si="2"/>
         <v>1248</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="3"/>
+        <v>413.15</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="4"/>
+        <v>1248</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="5"/>
+        <v>3210</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="6"/>
+        <v>629</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="7"/>
+        <v>7.0999999999999991E-4</v>
+      </c>
+      <c r="R21" s="2">
+        <f>'Vapor pressure'!M15*1000</f>
+        <v>222700.66046699998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>150</v>
       </c>
@@ -5224,8 +7620,32 @@
         <f t="shared" si="2"/>
         <v>1242</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="3"/>
+        <v>423.15</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="4"/>
+        <v>1242</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="5"/>
+        <v>3230</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="6"/>
+        <v>639</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="7"/>
+        <v>6.6E-4</v>
+      </c>
+      <c r="R22" s="2">
+        <f>'Vapor pressure'!M16*1000</f>
+        <v>292337.70909600001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>160</v>
       </c>
@@ -5261,8 +7681,32 @@
         <f t="shared" si="2"/>
         <v>1237</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="3"/>
+        <v>433.15</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="4"/>
+        <v>1237</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="5"/>
+        <v>3250</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="6"/>
+        <v>649</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="7"/>
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="R23" s="2">
+        <f>'Vapor pressure'!M17*1000</f>
+        <v>379211.65095000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>165</v>
       </c>
@@ -5298,8 +7742,32 @@
         <f t="shared" si="2"/>
         <v>1234</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="3"/>
+        <v>438.15</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="4"/>
+        <v>1234</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="5"/>
+        <v>3270</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="6"/>
+        <v>654</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="7"/>
+        <v>5.8999999999999992E-4</v>
+      </c>
+      <c r="R24" s="2">
+        <f>'Vapor pressure'!M18*1000</f>
+        <v>485390.91321600007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>170</v>
       </c>
@@ -5335,8 +7803,32 @@
         <f t="shared" si="2"/>
         <v>1231</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="3"/>
+        <v>443.15</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="4"/>
+        <v>1231</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="5"/>
+        <v>3280</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="6"/>
+        <v>659</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="7"/>
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="R25" s="2">
+        <f>'Vapor pressure'!M19*1000</f>
+        <v>616391.30172600003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>180</v>
       </c>
@@ -5372,8 +7864,32 @@
         <f t="shared" si="2"/>
         <v>1225</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
+        <v>453.15</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="4"/>
+        <v>1225</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="6"/>
+        <v>669</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="7"/>
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="R26" s="2">
+        <f>'Vapor pressure'!M20*1000</f>
+        <v>774970.71939600003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>190</v>
       </c>
@@ -5409,8 +7925,32 @@
         <f t="shared" si="2"/>
         <v>1220</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="3"/>
+        <v>463.15</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="4"/>
+        <v>1220</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="5"/>
+        <v>3320</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="6"/>
+        <v>679</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R27" s="2">
+        <f>'Vapor pressure'!M21*1000</f>
+        <v>965955.49632899999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>200</v>
       </c>
@@ -5427,24 +7967,48 @@
         <v>1214</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="3">A28+273.15</f>
+        <f t="shared" ref="G28" si="8">A28+273.15</f>
         <v>473.15</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28" si="4">B28*1000</f>
+        <f t="shared" ref="H28" si="9">B28*1000</f>
         <v>470</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="5">C28</f>
+        <f t="shared" ref="I28" si="10">C28</f>
         <v>0.68899999999999995</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28" si="6">D28</f>
+        <f t="shared" ref="J28" si="11">D28</f>
         <v>3.35</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28" si="7">E28</f>
+        <f t="shared" ref="K28" si="12">E28</f>
         <v>1214</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" ref="M28" si="13">A28+273.15</f>
+        <v>473.15</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" ref="N28" si="14">E28</f>
+        <v>1214</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" ref="O28" si="15">D28*1000</f>
+        <v>3350</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ref="P28" si="16">C28*1000</f>
+        <v>689</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" ref="Q28" si="17">B28/1000</f>
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="R28" s="2">
+        <f>'Vapor pressure'!M22*1000</f>
+        <v>1194171.9626280002</v>
       </c>
     </row>
   </sheetData>
@@ -5453,22 +8017,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5499,8 +8086,26 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>-50</v>
       </c>
@@ -5536,24 +8141,31 @@
         <f>E3</f>
         <v>1378</v>
       </c>
-      <c r="M3">
-        <f>[1]!Props("V","T",G3+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>34730.138835519167</v>
-      </c>
-      <c r="N3">
-        <f>[1]!Props("L","T",G3+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.3496897303748302E-7</v>
-      </c>
-      <c r="O3">
-        <f>[1]!Props("C","T",G3+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.5625137584888784</v>
-      </c>
-      <c r="P3">
-        <f>[1]!Props("D","T",G3+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1378.2459075109136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <f>A3+273.15</f>
+        <v>223.14999999999998</v>
+      </c>
+      <c r="N3" s="2">
+        <f>E3</f>
+        <v>1378</v>
+      </c>
+      <c r="O3" s="2">
+        <f>D3*1000</f>
+        <v>2563</v>
+      </c>
+      <c r="P3" s="2">
+        <f>C3*1000</f>
+        <v>435</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>B3/1000</f>
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>-40</v>
       </c>
@@ -5589,24 +8201,31 @@
         <f t="shared" ref="K4:K29" si="4">E4</f>
         <v>1373</v>
       </c>
-      <c r="M4">
-        <f>[1]!Props("V","T",G4+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>20346.909069221703</v>
-      </c>
-      <c r="N4">
-        <f>[1]!Props("L","T",G4+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.449821095025505E-7</v>
-      </c>
-      <c r="O4">
-        <f>[1]!Props("C","T",G4+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.5824058110945765</v>
-      </c>
-      <c r="P4">
-        <f>[1]!Props("D","T",G4+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1372.7363231624058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M28" si="5">A4+273.15</f>
+        <v>233.14999999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N28" si="6">E4</f>
+        <v>1373</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O28" si="7">D4*1000</f>
+        <v>2583</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P28" si="8">C4*1000</f>
+        <v>445</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q28" si="9">B4/1000</f>
+        <v>2.0399999999999998E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>-30</v>
       </c>
@@ -5642,24 +8261,31 @@
         <f t="shared" si="4"/>
         <v>1367</v>
       </c>
-      <c r="M5">
-        <f>[1]!Props("V","T",G5+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>13100.862472709419</v>
-      </c>
-      <c r="N5">
-        <f>[1]!Props("L","T",G5+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.5499387761817312E-7</v>
-      </c>
-      <c r="O5">
-        <f>[1]!Props("C","T",G5+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.6022582072271114</v>
-      </c>
-      <c r="P5">
-        <f>[1]!Props("D","T",G5+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1367.2211057400382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <f t="shared" si="5"/>
+        <v>243.14999999999998</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="6"/>
+        <v>1367</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="7"/>
+        <v>2602</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="8"/>
+        <v>455</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="9"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>-20</v>
       </c>
@@ -5695,24 +8321,31 @@
         <f t="shared" si="4"/>
         <v>1362</v>
       </c>
-      <c r="M6">
-        <f>[1]!Props("V","T",G6+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>9060.0060551075912</v>
-      </c>
-      <c r="N6">
-        <f>[1]!Props("L","T",G6+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.6500427738435094E-7</v>
-      </c>
-      <c r="O6">
-        <f>[1]!Props("C","T",G6+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.6220742828021946</v>
-      </c>
-      <c r="P6">
-        <f>[1]!Props("D","T",G6+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1361.7006285615003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <f t="shared" si="5"/>
+        <v>253.14999999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="6"/>
+        <v>1362</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="7"/>
+        <v>2622</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="8"/>
+        <v>465</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="9"/>
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>-10</v>
       </c>
@@ -5748,24 +8381,31 @@
         <f t="shared" si="4"/>
         <v>1356</v>
       </c>
-      <c r="M7">
-        <f>[1]!Props("V","T",G7+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6622.1430200941968</v>
-      </c>
-      <c r="N7">
-        <f>[1]!Props("L","T",G7+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.75013308801084E-7</v>
-      </c>
-      <c r="O7">
-        <f>[1]!Props("C","T",G7+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.6418573737355353</v>
-      </c>
-      <c r="P7">
-        <f>[1]!Props("D","T",G7+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1356.1752649444823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
+        <v>263.14999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="6"/>
+        <v>1356</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="7"/>
+        <v>2642</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="8"/>
+        <v>475</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9900000000000005E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5801,24 +8441,31 @@
         <f t="shared" si="4"/>
         <v>1351</v>
       </c>
-      <c r="M8">
-        <f>[1]!Props("V","T",G8+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5056.7919624258593</v>
-      </c>
-      <c r="N8">
-        <f>[1]!Props("L","T",G8+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.8502097186837221E-7</v>
-      </c>
-      <c r="O8">
-        <f>[1]!Props("C","T",G8+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.6616108159428467</v>
-      </c>
-      <c r="P8">
-        <f>[1]!Props("D","T",G8+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1350.6453882066739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" si="5"/>
+        <v>273.14999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>1351</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="7"/>
+        <v>2661</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="8"/>
+        <v>485</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="9"/>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>10</v>
       </c>
@@ -5854,24 +8501,31 @@
         <f t="shared" si="4"/>
         <v>1345</v>
       </c>
-      <c r="M9">
-        <f>[1]!Props("V","T",G9+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>3999.7910504116116</v>
-      </c>
-      <c r="N9">
-        <f>[1]!Props("L","T",G9+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.9502726658621566E-7</v>
-      </c>
-      <c r="O9">
-        <f>[1]!Props("C","T",G9+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.6813379453398385</v>
-      </c>
-      <c r="P9">
-        <f>[1]!Props("D","T",G9+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1345.1113716657651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="5"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="6"/>
+        <v>1345</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>2681</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="8"/>
+        <v>495</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8E-3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>20</v>
       </c>
@@ -5907,24 +8561,32 @@
         <f t="shared" si="4"/>
         <v>1340</v>
       </c>
-      <c r="M10">
-        <f>[1]!Props("V","T",G10+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>3255.9380262721224</v>
-      </c>
-      <c r="N10">
-        <f>[1]!Props("L","T",G10+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.0503219295461431E-7</v>
-      </c>
-      <c r="O10">
-        <f>[1]!Props("C","T",G10+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.701042097842222</v>
-      </c>
-      <c r="P10">
-        <f>[1]!Props("D","T",G10+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1339.5735886394455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="5"/>
+        <v>293.14999999999998</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="6"/>
+        <v>1340</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="7"/>
+        <v>2701</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="8"/>
+        <v>505</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="9"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="R10" s="2">
+        <f>'Vapor pressure'!N3*1000</f>
+        <v>1585.7941767000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>30</v>
       </c>
@@ -5960,24 +8622,32 @@
         <f t="shared" si="4"/>
         <v>1334</v>
       </c>
-      <c r="M11">
-        <f>[1]!Props("V","T",G11+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2714.1326002447913</v>
-      </c>
-      <c r="N11">
-        <f>[1]!Props("L","T",G11+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.1503575097356816E-7</v>
-      </c>
-      <c r="O11">
-        <f>[1]!Props("C","T",G11+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.7207266093657085</v>
-      </c>
-      <c r="P11">
-        <f>[1]!Props("D","T",G11+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1334.0324124454048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="5"/>
+        <v>303.14999999999998</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="6"/>
+        <v>1334</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="7"/>
+        <v>2720</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="8"/>
+        <v>515</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="9"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="R11" s="2">
+        <f>'Vapor pressure'!N4*1000</f>
+        <v>1930.5320412000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>40</v>
       </c>
@@ -6013,24 +8683,32 @@
         <f t="shared" si="4"/>
         <v>1328</v>
       </c>
-      <c r="M12">
-        <f>[1]!Props("V","T",G12+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2307.8798956998639</v>
-      </c>
-      <c r="N12">
-        <f>[1]!Props("L","T",G12+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.2503794064307719E-7</v>
-      </c>
-      <c r="O12">
-        <f>[1]!Props("C","T",G12+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.7403948158260092</v>
-      </c>
-      <c r="P12">
-        <f>[1]!Props("D","T",G12+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1328.4882164013331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="5"/>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="6"/>
+        <v>1328</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="7"/>
+        <v>2740</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="8"/>
+        <v>525</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="R12" s="2">
+        <f>'Vapor pressure'!N5*1000</f>
+        <v>3102.6407805000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>50</v>
       </c>
@@ -6066,24 +8744,32 @@
         <f t="shared" si="4"/>
         <v>1323</v>
       </c>
-      <c r="M13">
-        <f>[1]!Props("V","T",G13+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1995.6448089217342</v>
-      </c>
-      <c r="N13">
-        <f>[1]!Props("L","T",G13+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.3503876196314143E-7</v>
-      </c>
-      <c r="O13">
-        <f>[1]!Props("C","T",G13+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.7600500531388343</v>
-      </c>
-      <c r="P13">
-        <f>[1]!Props("D","T",G13+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1322.9413738249204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="5"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="6"/>
+        <v>1323</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="7"/>
+        <v>2760</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="8"/>
+        <v>535</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <f>'Vapor pressure'!N6*1000</f>
+        <v>5584.7534049000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>60</v>
       </c>
@@ -6119,24 +8805,32 @@
         <f t="shared" si="4"/>
         <v>1317</v>
       </c>
-      <c r="M14">
-        <f>[1]!Props("V","T",G14+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1750.5134964010153</v>
-      </c>
-      <c r="N14">
-        <f>[1]!Props("L","T",G14+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.4503821493376096E-7</v>
-      </c>
-      <c r="O14">
-        <f>[1]!Props("C","T",G14+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.7796956572198956</v>
-      </c>
-      <c r="P14">
-        <f>[1]!Props("D","T",G14+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1317.3922580338563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="5"/>
+        <v>333.15</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="6"/>
+        <v>1317</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="7"/>
+        <v>2780</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="8"/>
+        <v>545</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="9"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="R14" s="2">
+        <f>'Vapor pressure'!N7*1000</f>
+        <v>9859.5029246999984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>70</v>
       </c>
@@ -6172,24 +8866,32 @@
         <f t="shared" si="4"/>
         <v>1312</v>
       </c>
-      <c r="M15">
-        <f>[1]!Props("V","T",G15+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1554.482757924221</v>
-      </c>
-      <c r="N15">
-        <f>[1]!Props("L","T",G15+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.5503629955493559E-7</v>
-      </c>
-      <c r="O15">
-        <f>[1]!Props("C","T",G15+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.7993349639849039</v>
-      </c>
-      <c r="P15">
-        <f>[1]!Props("D","T",G15+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1311.8412423458306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="5"/>
+        <v>343.15</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="6"/>
+        <v>1312</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="7"/>
+        <v>2799</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="8"/>
+        <v>555</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="9"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="R15" s="2">
+        <f>'Vapor pressure'!N8*1000</f>
+        <v>16478.469923100001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>80</v>
       </c>
@@ -6225,24 +8927,32 @@
         <f t="shared" si="4"/>
         <v>1306</v>
       </c>
-      <c r="M16">
-        <f>[1]!Props("V","T",G16+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1395.1703169069121</v>
-      </c>
-      <c r="N16">
-        <f>[1]!Props("L","T",G16+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.6503301582666541E-7</v>
-      </c>
-      <c r="O16">
-        <f>[1]!Props("C","T",G16+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.8189713093495703</v>
-      </c>
-      <c r="P16">
-        <f>[1]!Props("D","T",G16+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1306.2887000785331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="5"/>
+        <v>353.15</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="6"/>
+        <v>1306</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="7"/>
+        <v>2819</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="R16" s="2">
+        <f>'Vapor pressure'!N9*1000</f>
+        <v>26062.182556200001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>90</v>
       </c>
@@ -6278,24 +8988,32 @@
         <f t="shared" si="4"/>
         <v>1301</v>
       </c>
-      <c r="M17">
-        <f>[1]!Props("V","T",G17+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1263.8486948203636</v>
-      </c>
-      <c r="N17">
-        <f>[1]!Props("L","T",G17+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.7502836374895042E-7</v>
-      </c>
-      <c r="O17">
-        <f>[1]!Props("C","T",G17+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.8386080292296056</v>
-      </c>
-      <c r="P17">
-        <f>[1]!Props("D","T",G17+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1300.7350045496537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="5"/>
+        <v>363.15</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="6"/>
+        <v>1301</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="7"/>
+        <v>2839</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="8"/>
+        <v>575</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="9"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="R17" s="2">
+        <f>'Vapor pressure'!N10*1000</f>
+        <v>39369.064125900004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>100</v>
       </c>
@@ -6331,24 +9049,32 @@
         <f t="shared" si="4"/>
         <v>1295</v>
       </c>
-      <c r="M18">
-        <f>[1]!Props("V","T",G18+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1154.2313815724306</v>
-      </c>
-      <c r="N18">
-        <f>[1]!Props("L","T",G18+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.8502234332179063E-7</v>
-      </c>
-      <c r="O18">
-        <f>[1]!Props("C","T",G18+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.8582484595407207</v>
-      </c>
-      <c r="P18">
-        <f>[1]!Props("D","T",G18+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1295.1805290768823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="5"/>
+        <v>373.15</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="6"/>
+        <v>1295</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="7"/>
+        <v>2858</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="8"/>
+        <v>585</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="R18" s="2">
+        <f>'Vapor pressure'!N11*1000</f>
+        <v>57295.433079900009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>110</v>
       </c>
@@ -6384,24 +9110,32 @@
         <f t="shared" si="4"/>
         <v>1290</v>
       </c>
-      <c r="M19">
-        <f>[1]!Props("V","T",G19+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1061.7015353790705</v>
-      </c>
-      <c r="N19">
-        <f>[1]!Props("L","T",G19+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.9501495454518604E-7</v>
-      </c>
-      <c r="O19">
-        <f>[1]!Props("C","T",G19+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.8778959361986276</v>
-      </c>
-      <c r="P19">
-        <f>[1]!Props("D","T",G19+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1289.6256469779084</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="5"/>
+        <v>383.15</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="6"/>
+        <v>1290</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="7"/>
+        <v>2878</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="8"/>
+        <v>595</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="R19" s="2">
+        <f>'Vapor pressure'!N12*1000</f>
+        <v>80668.660293000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>120</v>
       </c>
@@ -6437,24 +9171,32 @@
         <f t="shared" si="4"/>
         <v>1284</v>
       </c>
-      <c r="M20">
-        <f>[1]!Props("V","T",G20+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>982.80908716865133</v>
-      </c>
-      <c r="N20">
-        <f>[1]!Props("L","T",G20+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.0500619741913674E-7</v>
-      </c>
-      <c r="O20">
-        <f>[1]!Props("C","T",G20+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.8975537951190362</v>
-      </c>
-      <c r="P20">
-        <f>[1]!Props("D","T",G20+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1284.0707315704226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="5"/>
+        <v>393.15</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="6"/>
+        <v>1284</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="7"/>
+        <v>2898</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="8"/>
+        <v>605</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="9"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R20" s="2">
+        <f>'Vapor pressure'!N13*1000</f>
+        <v>111695.06809799999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>130</v>
       </c>
@@ -6490,24 +9232,32 @@
         <f t="shared" si="4"/>
         <v>1279</v>
       </c>
-      <c r="M21">
-        <f>[1]!Props("V","T",G21+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>914.93516729156738</v>
-      </c>
-      <c r="N21">
-        <f>[1]!Props("L","T",G21+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.1499607194364264E-7</v>
-      </c>
-      <c r="O21">
-        <f>[1]!Props("C","T",G21+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.9172253722176587</v>
-      </c>
-      <c r="P21">
-        <f>[1]!Props("D","T",G21+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1278.5161561721138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="5"/>
+        <v>403.15</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="6"/>
+        <v>1279</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="7"/>
+        <v>2917</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="8"/>
+        <v>615</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="9"/>
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="R21" s="2">
+        <f>'Vapor pressure'!N14*1000</f>
+        <v>150995.18465099999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>140</v>
       </c>
@@ -6543,24 +9293,32 @@
         <f t="shared" si="4"/>
         <v>1273</v>
       </c>
-      <c r="M22">
-        <f>[1]!Props("V","T",G22+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>856.06345161942045</v>
-      </c>
-      <c r="N22">
-        <f>[1]!Props("L","T",G22+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.2498457811870363E-7</v>
-      </c>
-      <c r="O22">
-        <f>[1]!Props("C","T",G22+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.9369140034102053</v>
-      </c>
-      <c r="P22">
-        <f>[1]!Props("D","T",G22+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1272.9622941006726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="5"/>
+        <v>413.15</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="6"/>
+        <v>1273</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="7"/>
+        <v>2937</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="8"/>
+        <v>625</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="9"/>
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="R22" s="2">
+        <f>'Vapor pressure'!N15*1000</f>
+        <v>200637.43713900002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>150</v>
       </c>
@@ -6596,24 +9354,32 @@
         <f t="shared" si="4"/>
         <v>1267</v>
       </c>
-      <c r="M23">
-        <f>[1]!Props("V","T",G23+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>804.62137645317705</v>
-      </c>
-      <c r="N23">
-        <f>[1]!Props("L","T",G23+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.3497171594431992E-7</v>
-      </c>
-      <c r="O23">
-        <f>[1]!Props("C","T",G23+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.9566230246123868</v>
-      </c>
-      <c r="P23">
-        <f>[1]!Props("D","T",G23+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1267.4095186737882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="5"/>
+        <v>423.15</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="6"/>
+        <v>1267</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="7"/>
+        <v>2957</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="8"/>
+        <v>635</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="9"/>
+        <v>8.1000000000000006E-4</v>
+      </c>
+      <c r="R23" s="2">
+        <f>'Vapor pressure'!N16*1000</f>
+        <v>263379.72847799998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>160</v>
       </c>
@@ -6649,24 +9415,32 @@
         <f t="shared" si="4"/>
         <v>1262</v>
       </c>
-      <c r="M24">
-        <f>[1]!Props("V","T",G24+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>759.36795008276488</v>
-      </c>
-      <c r="N24">
-        <f>[1]!Props("L","T",G24+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.449574854204913E-7</v>
-      </c>
-      <c r="O24">
-        <f>[1]!Props("C","T",G24+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.9763557717399149</v>
-      </c>
-      <c r="P24">
-        <f>[1]!Props("D","T",G24+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1261.858203209151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="5"/>
+        <v>433.15</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="6"/>
+        <v>1262</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="7"/>
+        <v>2977</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="8"/>
+        <v>645</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="9"/>
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="R24" s="2">
+        <f>'Vapor pressure'!N17*1000</f>
+        <v>341290.48585499998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>170</v>
       </c>
@@ -6702,24 +9476,32 @@
         <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="M25">
-        <f>[1]!Props("V","T",G25+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>719.31322375850766</v>
-      </c>
-      <c r="N25">
-        <f>[1]!Props("L","T",G25+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.5494188654721799E-7</v>
-      </c>
-      <c r="O25">
-        <f>[1]!Props("C","T",G25+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>2.9961155807085005</v>
-      </c>
-      <c r="P25">
-        <f>[1]!Props("D","T",G25+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1256.3087210244503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="5"/>
+        <v>443.15</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="6"/>
+        <v>1256</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="7"/>
+        <v>2996</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="8"/>
+        <v>655</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="9"/>
+        <v>7.0999999999999991E-4</v>
+      </c>
+      <c r="R25" s="2">
+        <f>'Vapor pressure'!N18*1000</f>
+        <v>436438.13645699999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>180</v>
       </c>
@@ -6755,24 +9537,32 @@
         <f t="shared" si="4"/>
         <v>1251</v>
       </c>
-      <c r="M26">
-        <f>[1]!Props("V","T",G26+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>683.65964299528639</v>
-      </c>
-      <c r="N26">
-        <f>[1]!Props("L","T",G26+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.6492491932449986E-7</v>
-      </c>
-      <c r="O26">
-        <f>[1]!Props("C","T",G26+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>3.0159057874338546</v>
-      </c>
-      <c r="P26">
-        <f>[1]!Props("D","T",G26+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1250.7614454373763</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="5"/>
+        <v>453.15</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="6"/>
+        <v>1251</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="7"/>
+        <v>3016</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="8"/>
+        <v>665</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="9"/>
+        <v>6.6E-4</v>
+      </c>
+      <c r="R26" s="2">
+        <f>'Vapor pressure'!N19*1000</f>
+        <v>553649.01038699993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>190</v>
       </c>
@@ -6808,24 +9598,32 @@
         <f t="shared" si="4"/>
         <v>1245</v>
       </c>
-      <c r="M27">
-        <f>[1]!Props("V","T",G27+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>651.75875966300316</v>
-      </c>
-      <c r="N27">
-        <f>[1]!Props("L","T",G27+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.7490658375233693E-7</v>
-      </c>
-      <c r="O27">
-        <f>[1]!Props("C","T",G27+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>3.0357297278316882</v>
-      </c>
-      <c r="P27">
-        <f>[1]!Props("D","T",G27+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1245.2167497656189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="5"/>
+        <v>463.15</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="6"/>
+        <v>1245</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="7"/>
+        <v>3036</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="8"/>
+        <v>675</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2E-4</v>
+      </c>
+      <c r="R27" s="2">
+        <f>'Vapor pressure'!N20*1000</f>
+        <v>695681.01056100009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>200</v>
       </c>
@@ -6861,24 +9659,32 @@
         <f t="shared" si="4"/>
         <v>1240</v>
       </c>
-      <c r="M28">
-        <f>[1]!Props("V","T",G28+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>623.07888501033665</v>
-      </c>
-      <c r="N28">
-        <f>[1]!Props("L","T",G28+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.8488687983072909E-7</v>
-      </c>
-      <c r="O28">
-        <f>[1]!Props("C","T",G28+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>3.0555907378177123</v>
-      </c>
-      <c r="P28">
-        <f>[1]!Props("D","T",G28+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>1239.6750073268677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="5"/>
+        <v>473.15</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="6"/>
+        <v>1240</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="7"/>
+        <v>3055</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="8"/>
+        <v>685</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="9"/>
+        <v>5.8E-4</v>
+      </c>
+      <c r="R28" s="2">
+        <f>'Vapor pressure'!N21*1000</f>
+        <v>867360.46708199999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>210</v>
       </c>
@@ -6914,21 +9720,29 @@
         <f t="shared" si="4"/>
         <v>1234</v>
       </c>
-      <c r="M29" t="str">
-        <f>[1]!Props("V","T",G29+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>CoolProp error: Your temperature 483.160000 is not between 223.150000 and 483.150000.</v>
-      </c>
-      <c r="N29" t="str">
-        <f>[1]!Props("L","T",G29+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>CoolProp error: Your temperature 483.160000 is not between 223.150000 and 483.150000.</v>
-      </c>
-      <c r="O29" t="str">
-        <f>[1]!Props("C","T",G29+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>CoolProp error: Your temperature 483.160000 is not between 223.150000 and 483.150000.</v>
-      </c>
-      <c r="P29" t="str">
-        <f>[1]!Props("D","T",G29+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>CoolProp error: Your temperature 483.160000 is not between 223.150000 and 483.150000.</v>
+      <c r="M29" s="2">
+        <f t="shared" ref="M29" si="10">A29+273.15</f>
+        <v>483.15</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ref="N29" si="11">E29</f>
+        <v>1234</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" ref="O29" si="12">D29*1000</f>
+        <v>3075</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ref="P29" si="13">C29*1000</f>
+        <v>694.5</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" ref="Q29" si="14">B29/1000</f>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="R29" s="2">
+        <f>'Vapor pressure'!N22*1000</f>
+        <v>1072824.2343239998</v>
       </c>
     </row>
   </sheetData>
@@ -6937,13 +9751,2994 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AD44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:30">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="2:30">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>263.14999999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="F3" s="3">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="G3" s="3">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="I3" s="3">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="K3" s="3">
+        <v>333.15</v>
+      </c>
+      <c r="L3" s="3">
+        <v>343.15</v>
+      </c>
+      <c r="M3" s="3">
+        <v>353.15</v>
+      </c>
+      <c r="N3" s="3">
+        <v>363.15</v>
+      </c>
+      <c r="O3" s="3">
+        <v>373.15</v>
+      </c>
+      <c r="P3" s="3">
+        <v>383.15</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>393.15</v>
+      </c>
+      <c r="R3" s="3">
+        <v>403.15</v>
+      </c>
+      <c r="S3" s="3">
+        <v>413.15</v>
+      </c>
+      <c r="T3" s="3">
+        <v>423.15</v>
+      </c>
+      <c r="U3" s="3">
+        <v>433.15</v>
+      </c>
+      <c r="V3" s="3">
+        <v>443.15</v>
+      </c>
+      <c r="W3" s="3">
+        <v>453.15</v>
+      </c>
+      <c r="X3" s="3">
+        <v>463.15</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>473.15</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>483.15</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>491.15</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="2:30">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1204</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1199</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1195</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1190</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1186</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1181</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1177</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1172</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1167</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1163</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1158</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1154</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1149</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1145</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1140</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1136</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1131</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1127</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1122</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1118</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1113</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1109</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1104</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1101</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="2:30">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3246</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3271</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3296</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3320</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3345</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3370</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3395</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3420</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3444</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3469</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3494</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3519</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3544</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3568</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3593</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3618</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3643</v>
+      </c>
+      <c r="U5" s="3">
+        <v>3668</v>
+      </c>
+      <c r="V5" s="3">
+        <v>3692</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3717</v>
+      </c>
+      <c r="X5" s="3">
+        <v>3742</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>3767</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>3792</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>3811</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="2:30">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>494</v>
+      </c>
+      <c r="E6" s="3">
+        <v>504</v>
+      </c>
+      <c r="F6" s="3">
+        <v>514</v>
+      </c>
+      <c r="G6" s="3">
+        <v>524</v>
+      </c>
+      <c r="H6" s="3">
+        <v>534</v>
+      </c>
+      <c r="I6" s="3">
+        <v>544</v>
+      </c>
+      <c r="J6" s="3">
+        <v>554</v>
+      </c>
+      <c r="K6" s="3">
+        <v>564</v>
+      </c>
+      <c r="L6" s="3">
+        <v>574</v>
+      </c>
+      <c r="M6" s="3">
+        <v>584</v>
+      </c>
+      <c r="N6" s="3">
+        <v>594</v>
+      </c>
+      <c r="O6" s="3">
+        <v>604</v>
+      </c>
+      <c r="P6" s="3">
+        <v>614</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>624</v>
+      </c>
+      <c r="R6" s="3">
+        <v>634</v>
+      </c>
+      <c r="S6" s="3">
+        <v>644</v>
+      </c>
+      <c r="T6" s="3">
+        <v>654</v>
+      </c>
+      <c r="U6" s="3">
+        <v>664</v>
+      </c>
+      <c r="V6" s="3">
+        <v>674</v>
+      </c>
+      <c r="W6" s="3">
+        <v>684</v>
+      </c>
+      <c r="X6" s="3">
+        <v>694</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>704</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>714</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>722</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="2:30">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>9.1E-4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>8.1000000000000006E-4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6.6E-4</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="R7" s="3">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="S7" s="3">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="T7" s="3">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="U7" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="V7" s="3">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="W7" s="3">
+        <v>3.5E-4</v>
+      </c>
+      <c r="X7" s="3">
+        <v>3.3E-4</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3.1E-4</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="2:30">
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2275.2699057</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2895.7980617999997</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4757.3825300999997</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8549.4990396000012</v>
+      </c>
+      <c r="K8" s="3">
+        <v>14892.675746400002</v>
+      </c>
+      <c r="L8" s="3">
+        <v>24614.283525300001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>38748.535969800003</v>
+      </c>
+      <c r="N8" s="3">
+        <v>58398.59424630001</v>
+      </c>
+      <c r="O8" s="3">
+        <v>84805.51466700001</v>
+      </c>
+      <c r="P8" s="3">
+        <v>119968.77684599999</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>165474.17496</v>
+      </c>
+      <c r="R8" s="3">
+        <v>223390.13619599998</v>
+      </c>
+      <c r="S8" s="3">
+        <v>297164.03919899999</v>
+      </c>
+      <c r="T8" s="3">
+        <v>390243.26261400001</v>
+      </c>
+      <c r="U8" s="3">
+        <v>505385.70935700001</v>
+      </c>
+      <c r="V8" s="3">
+        <v>647417.709531</v>
+      </c>
+      <c r="W8" s="3">
+        <v>820476.11751000001</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1031455.690584</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1285872.2345850002</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1589931.0310740001</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1874684.507151</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="2:30">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="2:30">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+    </row>
+    <row r="11" spans="2:30">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="2:30">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>253.14999999999998</v>
+      </c>
+      <c r="E12" s="3">
+        <v>263.14999999999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="G12" s="3">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="J12" s="3">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="K12" s="3">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="L12" s="3">
+        <v>333.15</v>
+      </c>
+      <c r="M12" s="3">
+        <v>343.15</v>
+      </c>
+      <c r="N12" s="3">
+        <v>353.15</v>
+      </c>
+      <c r="O12" s="3">
+        <v>363.15</v>
+      </c>
+      <c r="P12" s="3">
+        <v>373.15</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>383.15</v>
+      </c>
+      <c r="R12" s="3">
+        <v>393.15</v>
+      </c>
+      <c r="S12" s="3">
+        <v>403.15</v>
+      </c>
+      <c r="T12" s="3">
+        <v>413.15</v>
+      </c>
+      <c r="U12" s="3">
+        <v>423.15</v>
+      </c>
+      <c r="V12" s="3">
+        <v>433.15</v>
+      </c>
+      <c r="W12" s="3">
+        <v>443.15</v>
+      </c>
+      <c r="X12" s="3">
+        <v>453.15</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>463.15</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>473.15</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>483.15</v>
+      </c>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="2:30">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1258</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1253</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1248</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1242</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1237</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1232</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1227</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1222</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1216</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1211</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1206</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1201</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1196</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1191</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1185</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1180</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1175</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1170</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1165</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1159</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1154</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1149</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1144</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1139</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3117</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3141</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3164</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3188</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3212</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3235</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3259</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3282</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3306</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3330</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3353</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3377</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3424</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3448</v>
+      </c>
+      <c r="S14" s="3">
+        <v>3471</v>
+      </c>
+      <c r="T14" s="3">
+        <v>3495</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3518</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3542</v>
+      </c>
+      <c r="W14" s="3">
+        <v>3566</v>
+      </c>
+      <c r="X14" s="3">
+        <v>3589</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>3613</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>3636</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>3660</v>
+      </c>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="2:30">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3">
+        <v>483</v>
+      </c>
+      <c r="E15" s="3">
+        <v>493</v>
+      </c>
+      <c r="F15" s="3">
+        <v>503</v>
+      </c>
+      <c r="G15" s="3">
+        <v>513</v>
+      </c>
+      <c r="H15" s="3">
+        <v>523</v>
+      </c>
+      <c r="I15" s="3">
+        <v>533</v>
+      </c>
+      <c r="J15" s="3">
+        <v>543</v>
+      </c>
+      <c r="K15" s="3">
+        <v>553</v>
+      </c>
+      <c r="L15" s="3">
+        <v>563</v>
+      </c>
+      <c r="M15" s="3">
+        <v>573</v>
+      </c>
+      <c r="N15" s="3">
+        <v>583</v>
+      </c>
+      <c r="O15" s="3">
+        <v>593</v>
+      </c>
+      <c r="P15" s="3">
+        <v>603</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>613</v>
+      </c>
+      <c r="R15" s="3">
+        <v>623</v>
+      </c>
+      <c r="S15" s="3">
+        <v>633</v>
+      </c>
+      <c r="T15" s="3">
+        <v>643</v>
+      </c>
+      <c r="U15" s="3">
+        <v>653</v>
+      </c>
+      <c r="V15" s="3">
+        <v>663</v>
+      </c>
+      <c r="W15" s="3">
+        <v>673</v>
+      </c>
+      <c r="X15" s="3">
+        <v>683</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>693</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>703</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>713</v>
+      </c>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="2:30">
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>9.5E-4</v>
+      </c>
+      <c r="O16" s="3">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="P16" s="3">
+        <v>7.7000000000000007E-4</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R16" s="3">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="S16" s="3">
+        <v>5.8E-4</v>
+      </c>
+      <c r="T16" s="3">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="U16" s="3">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="V16" s="3">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="W16" s="3">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="X16" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>3.5E-4</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>3.3E-4</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2068.4271870000002</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2757.9029160000005</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4550.5398114</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7997.9184563999997</v>
+      </c>
+      <c r="L17" s="3">
+        <v>13720.5670071</v>
+      </c>
+      <c r="M17" s="3">
+        <v>22476.9087654</v>
+      </c>
+      <c r="N17" s="3">
+        <v>35232.209751900002</v>
+      </c>
+      <c r="O17" s="3">
+        <v>52951.735987200002</v>
+      </c>
+      <c r="P17" s="3">
+        <v>77221.281648000004</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>108937.16518200001</v>
+      </c>
+      <c r="R17" s="3">
+        <v>150305.70892200002</v>
+      </c>
+      <c r="S17" s="3">
+        <v>204084.81578400003</v>
+      </c>
+      <c r="T17" s="3">
+        <v>271653.43722600001</v>
+      </c>
+      <c r="U17" s="3">
+        <v>357148.42762199999</v>
+      </c>
+      <c r="V17" s="3">
+        <v>462638.21415899997</v>
+      </c>
+      <c r="W17" s="3">
+        <v>593638.60266899993</v>
+      </c>
+      <c r="X17" s="3">
+        <v>752907.49606799998</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>946650.17591700004</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1180382.448048</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1459620.1182929999</v>
+      </c>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="2:30">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="2:30">
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3">
+        <v>243.14999999999998</v>
+      </c>
+      <c r="E21" s="3">
+        <v>253.14999999999998</v>
+      </c>
+      <c r="F21" s="3">
+        <v>263.14999999999998</v>
+      </c>
+      <c r="G21" s="3">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="H21" s="3">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="I21" s="3">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="J21" s="3">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="K21" s="3">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="L21" s="3">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="M21" s="3">
+        <v>333.15</v>
+      </c>
+      <c r="N21" s="3">
+        <v>343.15</v>
+      </c>
+      <c r="O21" s="3">
+        <v>353.15</v>
+      </c>
+      <c r="P21" s="3">
+        <v>363.15</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>373.15</v>
+      </c>
+      <c r="R21" s="3">
+        <v>383.15</v>
+      </c>
+      <c r="S21" s="3">
+        <v>393.15</v>
+      </c>
+      <c r="T21" s="3">
+        <v>403.15</v>
+      </c>
+      <c r="U21" s="3">
+        <v>413.15</v>
+      </c>
+      <c r="V21" s="3">
+        <v>423.15</v>
+      </c>
+      <c r="W21" s="3">
+        <v>433.15</v>
+      </c>
+      <c r="X21" s="3">
+        <v>443.15</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>453.15</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>463.15</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>473.15</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>483.15</v>
+      </c>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="2:30">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1295</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1290</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1285</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1280</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1275</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1270</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1265</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1260</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1255</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1250</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1244</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1239</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1234</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1229</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1224</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1219</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1214</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1209</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1204</v>
+      </c>
+      <c r="X22" s="3">
+        <v>1199</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1193</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1188</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>1183</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1178</v>
+      </c>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="2:30">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2961</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2984</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3007</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3031</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3054</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3077</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3123</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3146</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3169</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3192</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3215</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3238</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>3262</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3285</v>
+      </c>
+      <c r="S23" s="3">
+        <v>3308</v>
+      </c>
+      <c r="T23" s="3">
+        <v>3331</v>
+      </c>
+      <c r="U23" s="3">
+        <v>3354</v>
+      </c>
+      <c r="V23" s="3">
+        <v>3377</v>
+      </c>
+      <c r="W23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X23" s="3">
+        <v>3423</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>3446</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>3469</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>3493</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>3516</v>
+      </c>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="2:30">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3">
+        <v>469</v>
+      </c>
+      <c r="E24" s="3">
+        <v>479</v>
+      </c>
+      <c r="F24" s="3">
+        <v>489</v>
+      </c>
+      <c r="G24" s="3">
+        <v>499</v>
+      </c>
+      <c r="H24" s="3">
+        <v>509</v>
+      </c>
+      <c r="I24" s="3">
+        <v>519</v>
+      </c>
+      <c r="J24" s="3">
+        <v>529</v>
+      </c>
+      <c r="K24" s="3">
+        <v>539</v>
+      </c>
+      <c r="L24" s="3">
+        <v>549</v>
+      </c>
+      <c r="M24" s="3">
+        <v>559</v>
+      </c>
+      <c r="N24" s="3">
+        <v>569</v>
+      </c>
+      <c r="O24" s="3">
+        <v>579</v>
+      </c>
+      <c r="P24" s="3">
+        <v>589</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>599</v>
+      </c>
+      <c r="R24" s="3">
+        <v>609</v>
+      </c>
+      <c r="S24" s="3">
+        <v>619</v>
+      </c>
+      <c r="T24" s="3">
+        <v>629</v>
+      </c>
+      <c r="U24" s="3">
+        <v>639</v>
+      </c>
+      <c r="V24" s="3">
+        <v>649</v>
+      </c>
+      <c r="W24" s="3">
+        <v>659</v>
+      </c>
+      <c r="X24" s="3">
+        <v>669</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>679</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>689</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>699</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>709</v>
+      </c>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P25" s="3">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>8.9000000000000006E-4</v>
+      </c>
+      <c r="R25" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="S25" s="3">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="T25" s="3">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="U25" s="3">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="V25" s="3">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="W25" s="3">
+        <v>5.2000000000000006E-4</v>
+      </c>
+      <c r="X25" s="3">
+        <v>4.7999999999999996E-4</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>4.1999999999999996E-4</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="2:30">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1792.6368954</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2413.1650515000001</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3998.9592281999999</v>
+      </c>
+      <c r="L26" s="3">
+        <v>7170.5475815999998</v>
+      </c>
+      <c r="M26" s="3">
+        <v>12479.5106949</v>
+      </c>
+      <c r="N26" s="3">
+        <v>20615.324297100004</v>
+      </c>
+      <c r="O26" s="3">
+        <v>32336.411690100009</v>
+      </c>
+      <c r="P26" s="3">
+        <v>48676.986467399998</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>71016.000087000008</v>
+      </c>
+      <c r="R26" s="3">
+        <v>99973.980705000009</v>
+      </c>
+      <c r="S26" s="3">
+        <v>137895.1458</v>
+      </c>
+      <c r="T26" s="3">
+        <v>186158.44683</v>
+      </c>
+      <c r="U26" s="3">
+        <v>247521.78671099999</v>
+      </c>
+      <c r="V26" s="3">
+        <v>324743.06835900003</v>
+      </c>
+      <c r="W26" s="3">
+        <v>420580.19469000003</v>
+      </c>
+      <c r="X26" s="3">
+        <v>539170.02007800003</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>683959.92316800007</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>859086.75833400001</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1071445.282866</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1325172.3511380001</v>
+      </c>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="2:30">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="2:30">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="2:30">
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3">
+        <v>233.14999999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>243.14999999999998</v>
+      </c>
+      <c r="F30" s="3">
+        <v>253.14999999999998</v>
+      </c>
+      <c r="G30" s="3">
+        <v>263.14999999999998</v>
+      </c>
+      <c r="H30" s="3">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="I30" s="3">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="J30" s="3">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="K30" s="3">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="L30" s="3">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="M30" s="3">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="N30" s="3">
+        <v>333.15</v>
+      </c>
+      <c r="O30" s="3">
+        <v>343.15</v>
+      </c>
+      <c r="P30" s="3">
+        <v>353.15</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>363.15</v>
+      </c>
+      <c r="R30" s="3">
+        <v>373.15</v>
+      </c>
+      <c r="S30" s="3">
+        <v>383.15</v>
+      </c>
+      <c r="T30" s="3">
+        <v>393.15</v>
+      </c>
+      <c r="U30" s="3">
+        <v>403.15</v>
+      </c>
+      <c r="V30" s="3">
+        <v>413.15</v>
+      </c>
+      <c r="W30" s="3">
+        <v>423.15</v>
+      </c>
+      <c r="X30" s="3">
+        <v>433.15</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>438.15</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>443.15</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>453.15</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>463.15</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>473.15</v>
+      </c>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="2:30">
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1348</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1343</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1337</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1332</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1326</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1321</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1315</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1309</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1304</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1298</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1293</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1287</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1281</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1276</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1270</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1265</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1259</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1253</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1248</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1242</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1237</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1234</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>1231</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>1225</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>1220</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>1214</v>
+      </c>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2820</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2840</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2870</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2890</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2910</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2930</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2960</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2980</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3030</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3050</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3070</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>3090</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3120</v>
+      </c>
+      <c r="S32" s="3">
+        <v>3140</v>
+      </c>
+      <c r="T32" s="3">
+        <v>3160</v>
+      </c>
+      <c r="U32" s="3">
+        <v>3190</v>
+      </c>
+      <c r="V32" s="3">
+        <v>3210</v>
+      </c>
+      <c r="W32" s="3">
+        <v>3230</v>
+      </c>
+      <c r="X32" s="3">
+        <v>3250</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>3270</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>3280</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>3320</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>3350</v>
+      </c>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="2:30">
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3">
+        <v>449</v>
+      </c>
+      <c r="E33" s="3">
+        <v>459</v>
+      </c>
+      <c r="F33" s="3">
+        <v>469</v>
+      </c>
+      <c r="G33" s="3">
+        <v>479</v>
+      </c>
+      <c r="H33" s="3">
+        <v>489</v>
+      </c>
+      <c r="I33" s="3">
+        <v>499</v>
+      </c>
+      <c r="J33" s="3">
+        <v>509</v>
+      </c>
+      <c r="K33" s="3">
+        <v>519</v>
+      </c>
+      <c r="L33" s="3">
+        <v>529</v>
+      </c>
+      <c r="M33" s="3">
+        <v>539</v>
+      </c>
+      <c r="N33" s="3">
+        <v>549</v>
+      </c>
+      <c r="O33" s="3">
+        <v>559</v>
+      </c>
+      <c r="P33" s="3">
+        <v>569</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>579</v>
+      </c>
+      <c r="R33" s="3">
+        <v>589</v>
+      </c>
+      <c r="S33" s="3">
+        <v>599</v>
+      </c>
+      <c r="T33" s="3">
+        <v>609</v>
+      </c>
+      <c r="U33" s="3">
+        <v>619</v>
+      </c>
+      <c r="V33" s="3">
+        <v>629</v>
+      </c>
+      <c r="W33" s="3">
+        <v>639</v>
+      </c>
+      <c r="X33" s="3">
+        <v>649</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>654</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>659</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>669</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>679</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>689</v>
+      </c>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="2:30">
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="R34" s="3">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="S34" s="3">
+        <v>9.1E-4</v>
+      </c>
+      <c r="T34" s="3">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="U34" s="3">
+        <v>7.7000000000000007E-4</v>
+      </c>
+      <c r="V34" s="3">
+        <v>7.0999999999999991E-4</v>
+      </c>
+      <c r="W34" s="3">
+        <v>6.6E-4</v>
+      </c>
+      <c r="X34" s="3">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>5.8999999999999992E-4</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="2:30">
+      <c r="B35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1516.8466038000001</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2206.3223327999999</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3792.1165095000006</v>
+      </c>
+      <c r="M35" s="3">
+        <v>6687.9145713000007</v>
+      </c>
+      <c r="N35" s="3">
+        <v>11514.2446743</v>
+      </c>
+      <c r="O35" s="3">
+        <v>18753.7398288</v>
+      </c>
+      <c r="P35" s="3">
+        <v>29233.770909600004</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>43781.708791500001</v>
+      </c>
+      <c r="R35" s="3">
+        <v>63500.714640900005</v>
+      </c>
+      <c r="S35" s="3">
+        <v>89631.844769999996</v>
+      </c>
+      <c r="T35" s="3">
+        <v>123416.155491</v>
+      </c>
+      <c r="U35" s="3">
+        <v>166853.126418</v>
+      </c>
+      <c r="V35" s="3">
+        <v>222700.66046699998</v>
+      </c>
+      <c r="W35" s="3">
+        <v>292337.70909600001</v>
+      </c>
+      <c r="X35" s="3">
+        <v>379211.65095000004</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>485390.91321600007</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>616391.30172600003</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>774970.71939600003</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>965955.49632899999</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>1194171.9626280002</v>
+      </c>
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="2:30">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="2:30">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+    </row>
+    <row r="38" spans="2:30">
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+    </row>
+    <row r="39" spans="2:30">
+      <c r="B39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3">
+        <v>223.14999999999998</v>
+      </c>
+      <c r="E39" s="3">
+        <v>233.14999999999998</v>
+      </c>
+      <c r="F39" s="3">
+        <v>243.14999999999998</v>
+      </c>
+      <c r="G39" s="3">
+        <v>253.14999999999998</v>
+      </c>
+      <c r="H39" s="3">
+        <v>263.14999999999998</v>
+      </c>
+      <c r="I39" s="3">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="J39" s="3">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="K39" s="3">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="L39" s="3">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="M39" s="3">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="N39" s="3">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="O39" s="3">
+        <v>333.15</v>
+      </c>
+      <c r="P39" s="3">
+        <v>343.15</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>353.15</v>
+      </c>
+      <c r="R39" s="3">
+        <v>363.15</v>
+      </c>
+      <c r="S39" s="3">
+        <v>373.15</v>
+      </c>
+      <c r="T39" s="3">
+        <v>383.15</v>
+      </c>
+      <c r="U39" s="3">
+        <v>393.15</v>
+      </c>
+      <c r="V39" s="3">
+        <v>403.15</v>
+      </c>
+      <c r="W39" s="3">
+        <v>413.15</v>
+      </c>
+      <c r="X39" s="3">
+        <v>423.15</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>433.15</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>443.15</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>453.15</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>463.15</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>473.15</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>483.15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30">
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1378</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1373</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1367</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1362</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1356</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1351</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1345</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1340</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1334</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1328</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1323</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1317</v>
+      </c>
+      <c r="P40" s="3">
+        <v>1312</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1306</v>
+      </c>
+      <c r="R40" s="3">
+        <v>1301</v>
+      </c>
+      <c r="S40" s="3">
+        <v>1295</v>
+      </c>
+      <c r="T40" s="3">
+        <v>1290</v>
+      </c>
+      <c r="U40" s="3">
+        <v>1284</v>
+      </c>
+      <c r="V40" s="3">
+        <v>1279</v>
+      </c>
+      <c r="W40" s="3">
+        <v>1273</v>
+      </c>
+      <c r="X40" s="3">
+        <v>1267</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>1262</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>1256</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>1251</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>1245</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>1240</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30">
+      <c r="B41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2563</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2583</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2602</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2622</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2642</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2661</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2681</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2701</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2720</v>
+      </c>
+      <c r="M41" s="3">
+        <v>2740</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2760</v>
+      </c>
+      <c r="O41" s="3">
+        <v>2780</v>
+      </c>
+      <c r="P41" s="3">
+        <v>2799</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>2819</v>
+      </c>
+      <c r="R41" s="3">
+        <v>2839</v>
+      </c>
+      <c r="S41" s="3">
+        <v>2858</v>
+      </c>
+      <c r="T41" s="3">
+        <v>2878</v>
+      </c>
+      <c r="U41" s="3">
+        <v>2898</v>
+      </c>
+      <c r="V41" s="3">
+        <v>2917</v>
+      </c>
+      <c r="W41" s="3">
+        <v>2937</v>
+      </c>
+      <c r="X41" s="3">
+        <v>2957</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>2977</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>2996</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>3016</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>3036</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>3055</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30">
+      <c r="B42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="3">
+        <v>435</v>
+      </c>
+      <c r="E42" s="3">
+        <v>445</v>
+      </c>
+      <c r="F42" s="3">
+        <v>455</v>
+      </c>
+      <c r="G42" s="3">
+        <v>465</v>
+      </c>
+      <c r="H42" s="3">
+        <v>475</v>
+      </c>
+      <c r="I42" s="3">
+        <v>485</v>
+      </c>
+      <c r="J42" s="3">
+        <v>495</v>
+      </c>
+      <c r="K42" s="3">
+        <v>505</v>
+      </c>
+      <c r="L42" s="3">
+        <v>515</v>
+      </c>
+      <c r="M42" s="3">
+        <v>525</v>
+      </c>
+      <c r="N42" s="3">
+        <v>535</v>
+      </c>
+      <c r="O42" s="3">
+        <v>545</v>
+      </c>
+      <c r="P42" s="3">
+        <v>555</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>565</v>
+      </c>
+      <c r="R42" s="3">
+        <v>575</v>
+      </c>
+      <c r="S42" s="3">
+        <v>585</v>
+      </c>
+      <c r="T42" s="3">
+        <v>595</v>
+      </c>
+      <c r="U42" s="3">
+        <v>605</v>
+      </c>
+      <c r="V42" s="3">
+        <v>615</v>
+      </c>
+      <c r="W42" s="3">
+        <v>625</v>
+      </c>
+      <c r="X42" s="3">
+        <v>635</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>645</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>655</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>665</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>675</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>685</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>694.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30">
+      <c r="B43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.0399999999999998E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5.9900000000000005E-3</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="U43" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="V43" s="3">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="W43" s="3">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="X43" s="3">
+        <v>8.1000000000000006E-4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>7.0999999999999991E-4</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>6.6E-4</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>6.2E-4</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>5.8E-4</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>5.5000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30">
+      <c r="B44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1585.7941767000002</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1930.5320412000003</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3102.6407805000003</v>
+      </c>
+      <c r="N44" s="3">
+        <v>5584.7534049000005</v>
+      </c>
+      <c r="O44" s="3">
+        <v>9859.5029246999984</v>
+      </c>
+      <c r="P44" s="3">
+        <v>16478.469923100001</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>26062.182556200001</v>
+      </c>
+      <c r="R44" s="3">
+        <v>39369.064125900004</v>
+      </c>
+      <c r="S44" s="3">
+        <v>57295.433079900009</v>
+      </c>
+      <c r="T44" s="3">
+        <v>80668.660293000008</v>
+      </c>
+      <c r="U44" s="3">
+        <v>111695.06809799999</v>
+      </c>
+      <c r="V44" s="3">
+        <v>150995.18465099999</v>
+      </c>
+      <c r="W44" s="3">
+        <v>200637.43713900002</v>
+      </c>
+      <c r="X44" s="3">
+        <v>263379.72847799998</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>341290.48585499998</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>436438.13645699999</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>553649.01038699993</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>695681.01056100009</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>867360.46708199999</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>1072824.2343239998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dev/IncompressibleLiquids/Dynalene_manufacturer_data.xlsx
+++ b/dev/IncompressibleLiquids/Dynalene_manufacturer_data.xlsx
@@ -83,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,8 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5457,15 +5462,15 @@
   <dimension ref="A2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -5540,15 +5545,15 @@
         <f>[1]!Props("V","T",G3+0.01,"P",101,"DynaleneHC-50")</f>
         <v>34730.138835519167</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <f>[1]!Props("L","T",G3+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.3496897303748302E-7</v>
-      </c>
-      <c r="O3">
+        <v>0.434968973037483</v>
+      </c>
+      <c r="O3" s="1">
         <f>[1]!Props("C","T",G3+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.5625137584888784</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <f>[1]!Props("D","T",G3+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1378.2459075109136</v>
       </c>
@@ -5593,15 +5598,15 @@
         <f>[1]!Props("V","T",G4+0.01,"P",101,"DynaleneHC-50")</f>
         <v>20346.909069221703</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <f>[1]!Props("L","T",G4+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.449821095025505E-7</v>
-      </c>
-      <c r="O4">
+        <v>0.4449821095025504</v>
+      </c>
+      <c r="O4" s="1">
         <f>[1]!Props("C","T",G4+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.5824058110945765</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <f>[1]!Props("D","T",G4+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1372.7363231624058</v>
       </c>
@@ -5646,15 +5651,15 @@
         <f>[1]!Props("V","T",G5+0.01,"P",101,"DynaleneHC-50")</f>
         <v>13100.862472709419</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <f>[1]!Props("L","T",G5+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.5499387761817312E-7</v>
-      </c>
-      <c r="O5">
+        <v>0.45499387761817311</v>
+      </c>
+      <c r="O5" s="1">
         <f>[1]!Props("C","T",G5+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.6022582072271114</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <f>[1]!Props("D","T",G5+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1367.2211057400382</v>
       </c>
@@ -5699,15 +5704,15 @@
         <f>[1]!Props("V","T",G6+0.01,"P",101,"DynaleneHC-50")</f>
         <v>9060.0060551075912</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <f>[1]!Props("L","T",G6+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.6500427738435094E-7</v>
-      </c>
-      <c r="O6">
+        <v>0.46500427738435091</v>
+      </c>
+      <c r="O6" s="1">
         <f>[1]!Props("C","T",G6+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.6220742828021946</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <f>[1]!Props("D","T",G6+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1361.7006285615003</v>
       </c>
@@ -5752,15 +5757,15 @@
         <f>[1]!Props("V","T",G7+0.01,"P",101,"DynaleneHC-50")</f>
         <v>6622.1430200941968</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <f>[1]!Props("L","T",G7+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.75013308801084E-7</v>
-      </c>
-      <c r="O7">
+        <v>0.47501330880108394</v>
+      </c>
+      <c r="O7" s="1">
         <f>[1]!Props("C","T",G7+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.6418573737355353</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <f>[1]!Props("D","T",G7+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1356.1752649444823</v>
       </c>
@@ -5805,15 +5810,15 @@
         <f>[1]!Props("V","T",G8+0.01,"P",101,"DynaleneHC-50")</f>
         <v>5056.7919624258593</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <f>[1]!Props("L","T",G8+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.8502097186837221E-7</v>
-      </c>
-      <c r="O8">
+        <v>0.48502097186837223</v>
+      </c>
+      <c r="O8" s="1">
         <f>[1]!Props("C","T",G8+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.6616108159428467</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <f>[1]!Props("D","T",G8+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1350.6453882066739</v>
       </c>
@@ -5858,15 +5863,15 @@
         <f>[1]!Props("V","T",G9+0.01,"P",101,"DynaleneHC-50")</f>
         <v>3999.7910504116116</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <f>[1]!Props("L","T",G9+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>4.9502726658621566E-7</v>
-      </c>
-      <c r="O9">
+        <v>0.49502726658621565</v>
+      </c>
+      <c r="O9" s="1">
         <f>[1]!Props("C","T",G9+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.6813379453398385</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <f>[1]!Props("D","T",G9+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1345.1113716657651</v>
       </c>
@@ -5911,15 +5916,15 @@
         <f>[1]!Props("V","T",G10+0.01,"P",101,"DynaleneHC-50")</f>
         <v>3255.9380262721224</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <f>[1]!Props("L","T",G10+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.0503219295461431E-7</v>
-      </c>
-      <c r="O10">
+        <v>0.50503219295461432</v>
+      </c>
+      <c r="O10" s="1">
         <f>[1]!Props("C","T",G10+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.701042097842222</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <f>[1]!Props("D","T",G10+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1339.5735886394455</v>
       </c>
@@ -5964,15 +5969,15 @@
         <f>[1]!Props("V","T",G11+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2714.1326002447913</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <f>[1]!Props("L","T",G11+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.1503575097356816E-7</v>
-      </c>
-      <c r="O11">
+        <v>0.51503575097356813</v>
+      </c>
+      <c r="O11" s="1">
         <f>[1]!Props("C","T",G11+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.7207266093657085</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <f>[1]!Props("D","T",G11+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1334.0324124454048</v>
       </c>
@@ -6017,15 +6022,15 @@
         <f>[1]!Props("V","T",G12+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2307.8798956998639</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <f>[1]!Props("L","T",G12+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.2503794064307719E-7</v>
-      </c>
-      <c r="O12">
+        <v>0.52503794064307729</v>
+      </c>
+      <c r="O12" s="1">
         <f>[1]!Props("C","T",G12+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.7403948158260092</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <f>[1]!Props("D","T",G12+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1328.4882164013331</v>
       </c>
@@ -6070,15 +6075,15 @@
         <f>[1]!Props("V","T",G13+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1995.6448089217342</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <f>[1]!Props("L","T",G13+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.3503876196314143E-7</v>
-      </c>
-      <c r="O13">
+        <v>0.53503876196314137</v>
+      </c>
+      <c r="O13" s="1">
         <f>[1]!Props("C","T",G13+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.7600500531388343</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <f>[1]!Props("D","T",G13+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1322.9413738249204</v>
       </c>
@@ -6123,15 +6128,15 @@
         <f>[1]!Props("V","T",G14+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1750.5134964010153</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <f>[1]!Props("L","T",G14+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.4503821493376096E-7</v>
-      </c>
-      <c r="O14">
+        <v>0.54503821493376081</v>
+      </c>
+      <c r="O14" s="1">
         <f>[1]!Props("C","T",G14+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.7796956572198956</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <f>[1]!Props("D","T",G14+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1317.3922580338563</v>
       </c>
@@ -6176,15 +6181,15 @@
         <f>[1]!Props("V","T",G15+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1554.482757924221</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <f>[1]!Props("L","T",G15+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.5503629955493559E-7</v>
-      </c>
-      <c r="O15">
+        <v>0.55503629955493561</v>
+      </c>
+      <c r="O15" s="1">
         <f>[1]!Props("C","T",G15+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.7993349639849039</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <f>[1]!Props("D","T",G15+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1311.8412423458306</v>
       </c>
@@ -6229,15 +6234,15 @@
         <f>[1]!Props("V","T",G16+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1395.1703169069121</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <f>[1]!Props("L","T",G16+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.6503301582666541E-7</v>
-      </c>
-      <c r="O16">
+        <v>0.56503301582666543</v>
+      </c>
+      <c r="O16" s="1">
         <f>[1]!Props("C","T",G16+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.8189713093495703</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <f>[1]!Props("D","T",G16+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1306.2887000785331</v>
       </c>
@@ -6282,15 +6287,15 @@
         <f>[1]!Props("V","T",G17+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1263.8486948203636</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <f>[1]!Props("L","T",G17+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.7502836374895042E-7</v>
-      </c>
-      <c r="O17">
+        <v>0.57502836374895039</v>
+      </c>
+      <c r="O17" s="1">
         <f>[1]!Props("C","T",G17+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.8386080292296056</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="2">
         <f>[1]!Props("D","T",G17+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1300.7350045496537</v>
       </c>
@@ -6335,15 +6340,15 @@
         <f>[1]!Props("V","T",G18+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1154.2313815724306</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <f>[1]!Props("L","T",G18+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.8502234332179063E-7</v>
-      </c>
-      <c r="O18">
+        <v>0.58502234332179071</v>
+      </c>
+      <c r="O18" s="1">
         <f>[1]!Props("C","T",G18+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.8582484595407207</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <f>[1]!Props("D","T",G18+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1295.1805290768823</v>
       </c>
@@ -6388,15 +6393,15 @@
         <f>[1]!Props("V","T",G19+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1061.7015353790705</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <f>[1]!Props("L","T",G19+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>5.9501495454518604E-7</v>
-      </c>
-      <c r="O19">
+        <v>0.59501495454518616</v>
+      </c>
+      <c r="O19" s="1">
         <f>[1]!Props("C","T",G19+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.8778959361986276</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="2">
         <f>[1]!Props("D","T",G19+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1289.6256469779084</v>
       </c>
@@ -6441,15 +6446,15 @@
         <f>[1]!Props("V","T",G20+0.01,"P",101,"DynaleneHC-50")</f>
         <v>982.80908716865133</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <f>[1]!Props("L","T",G20+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.0500619741913674E-7</v>
-      </c>
-      <c r="O20">
+        <v>0.60500619741913675</v>
+      </c>
+      <c r="O20" s="1">
         <f>[1]!Props("C","T",G20+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.8975537951190362</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="2">
         <f>[1]!Props("D","T",G20+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1284.0707315704226</v>
       </c>
@@ -6494,15 +6499,15 @@
         <f>[1]!Props("V","T",G21+0.01,"P",101,"DynaleneHC-50")</f>
         <v>914.93516729156738</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <f>[1]!Props("L","T",G21+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.1499607194364264E-7</v>
-      </c>
-      <c r="O21">
+        <v>0.61499607194364259</v>
+      </c>
+      <c r="O21" s="1">
         <f>[1]!Props("C","T",G21+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.9172253722176587</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="2">
         <f>[1]!Props("D","T",G21+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1278.5161561721138</v>
       </c>
@@ -6547,15 +6552,15 @@
         <f>[1]!Props("V","T",G22+0.01,"P",101,"DynaleneHC-50")</f>
         <v>856.06345161942045</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <f>[1]!Props("L","T",G22+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.2498457811870363E-7</v>
-      </c>
-      <c r="O22">
+        <v>0.62498457811870367</v>
+      </c>
+      <c r="O22" s="1">
         <f>[1]!Props("C","T",G22+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.9369140034102053</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <f>[1]!Props("D","T",G22+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1272.9622941006726</v>
       </c>
@@ -6600,15 +6605,15 @@
         <f>[1]!Props("V","T",G23+0.01,"P",101,"DynaleneHC-50")</f>
         <v>804.62137645317705</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <f>[1]!Props("L","T",G23+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.3497171594431992E-7</v>
-      </c>
-      <c r="O23">
+        <v>0.63497171594431989</v>
+      </c>
+      <c r="O23" s="1">
         <f>[1]!Props("C","T",G23+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.9566230246123868</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="2">
         <f>[1]!Props("D","T",G23+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1267.4095186737882</v>
       </c>
@@ -6653,15 +6658,15 @@
         <f>[1]!Props("V","T",G24+0.01,"P",101,"DynaleneHC-50")</f>
         <v>759.36795008276488</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <f>[1]!Props("L","T",G24+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.449574854204913E-7</v>
-      </c>
-      <c r="O24">
+        <v>0.64495748542049136</v>
+      </c>
+      <c r="O24" s="1">
         <f>[1]!Props("C","T",G24+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.9763557717399149</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="2">
         <f>[1]!Props("D","T",G24+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1261.858203209151</v>
       </c>
@@ -6706,15 +6711,15 @@
         <f>[1]!Props("V","T",G25+0.01,"P",101,"DynaleneHC-50")</f>
         <v>719.31322375850766</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <f>[1]!Props("L","T",G25+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.5494188654721799E-7</v>
-      </c>
-      <c r="O25">
+        <v>0.65494188654721797</v>
+      </c>
+      <c r="O25" s="1">
         <f>[1]!Props("C","T",G25+0.01,"P",101,"DynaleneHC-50")</f>
         <v>2.9961155807085005</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <f>[1]!Props("D","T",G25+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1256.3087210244503</v>
       </c>
@@ -6759,15 +6764,15 @@
         <f>[1]!Props("V","T",G26+0.01,"P",101,"DynaleneHC-50")</f>
         <v>683.65964299528639</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <f>[1]!Props("L","T",G26+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.6492491932449986E-7</v>
-      </c>
-      <c r="O26">
+        <v>0.66492491932449982</v>
+      </c>
+      <c r="O26" s="1">
         <f>[1]!Props("C","T",G26+0.01,"P",101,"DynaleneHC-50")</f>
         <v>3.0159057874338546</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="2">
         <f>[1]!Props("D","T",G26+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1250.7614454373763</v>
       </c>
@@ -6812,15 +6817,15 @@
         <f>[1]!Props("V","T",G27+0.01,"P",101,"DynaleneHC-50")</f>
         <v>651.75875966300316</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <f>[1]!Props("L","T",G27+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.7490658375233693E-7</v>
-      </c>
-      <c r="O27">
+        <v>0.67490658375233692</v>
+      </c>
+      <c r="O27" s="1">
         <f>[1]!Props("C","T",G27+0.01,"P",101,"DynaleneHC-50")</f>
         <v>3.0357297278316882</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="2">
         <f>[1]!Props("D","T",G27+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1245.2167497656189</v>
       </c>
@@ -6865,15 +6870,15 @@
         <f>[1]!Props("V","T",G28+0.01,"P",101,"DynaleneHC-50")</f>
         <v>623.07888501033665</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <f>[1]!Props("L","T",G28+0.01,"P",101,"DynaleneHC-50")</f>
-        <v>6.8488687983072909E-7</v>
-      </c>
-      <c r="O28">
+        <v>0.68488687983072905</v>
+      </c>
+      <c r="O28" s="1">
         <f>[1]!Props("C","T",G28+0.01,"P",101,"DynaleneHC-50")</f>
         <v>3.0555907378177123</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="2">
         <f>[1]!Props("D","T",G28+0.01,"P",101,"DynaleneHC-50")</f>
         <v>1239.6750073268677</v>
       </c>
